--- a/Datasets/Separated datasets/Asian Country ~ Japan.xlsx
+++ b/Datasets/Separated datasets/Asian Country ~ Japan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\Separated datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFFB952-B229-4BDB-B556-F621A0E950C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACA103B-1CF8-47C6-B2F4-71137DD3A39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="9137" windowWidth="23983" windowHeight="13594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5494" yWindow="7886" windowWidth="23983" windowHeight="13594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Confirmed</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>Infected</t>
-  </si>
-  <si>
-    <t>Susceptible</t>
-  </si>
-  <si>
-    <t>Recovered &amp; Death</t>
   </si>
 </sst>
 </file>
@@ -918,7 +912,7 @@
   <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -945,12 +939,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
@@ -969,14 +959,6 @@
         <f>B2-C2-D2</f>
         <v>1299</v>
       </c>
-      <c r="F2">
-        <f>126476458 -E2-D2-C2</f>
-        <v>126457620</v>
-      </c>
-      <c r="G2">
-        <f>D2+C2</f>
-        <v>17539</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
@@ -995,14 +977,6 @@
         <f t="shared" ref="E3:E66" si="0">B3-C3-D3</f>
         <v>1463</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">126476458 -E3-D3-C3</f>
-        <v>126457403</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="2">D3+C3</f>
-        <v>17592</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
@@ -1021,14 +995,6 @@
         <f t="shared" si="0"/>
         <v>1487</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>126457273</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>17698</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
@@ -1047,14 +1013,6 @@
         <f t="shared" si="0"/>
         <v>1652</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>126456997</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>17809</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -1073,14 +1031,6 @@
         <f t="shared" si="0"/>
         <v>1821</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>126456790</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>17847</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
@@ -1099,14 +1049,6 @@
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>126456610</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>17985</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
@@ -1125,14 +1067,6 @@
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>126456403</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>18038</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
@@ -1151,14 +1085,6 @@
         <f t="shared" si="0"/>
         <v>2222</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>126456197</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>18039</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
@@ -1177,14 +1103,6 @@
         <f t="shared" si="0"/>
         <v>2223</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>126455841</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>18394</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -1203,14 +1121,6 @@
         <f t="shared" si="0"/>
         <v>2568</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>126455414</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>18476</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
@@ -1229,14 +1139,6 @@
         <f t="shared" si="0"/>
         <v>2954</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>126455028</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>18476</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
@@ -1255,14 +1157,6 @@
         <f t="shared" si="0"/>
         <v>3013</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>126454617</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>18828</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
@@ -1281,14 +1175,6 @@
         <f t="shared" si="0"/>
         <v>3083</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>126454333</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>19042</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
@@ -1307,14 +1193,6 @@
         <f t="shared" si="0"/>
         <v>3327</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>126454021</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>19110</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
@@ -1333,16 +1211,8 @@
         <f t="shared" si="0"/>
         <v>4062</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>126453286</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>19110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>44028</v>
       </c>
@@ -1359,16 +1229,8 @@
         <f t="shared" si="0"/>
         <v>3884</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>126452948</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>19626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>44029</v>
       </c>
@@ -1385,16 +1247,8 @@
         <f t="shared" si="0"/>
         <v>4175</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>126452354</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>19929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
@@ -1411,16 +1265,8 @@
         <f t="shared" si="0"/>
         <v>4749</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>126451512</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>20197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>44031</v>
       </c>
@@ -1437,16 +1283,8 @@
         <f t="shared" si="0"/>
         <v>5249</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>126451012</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>20197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>44032</v>
       </c>
@@ -1463,16 +1301,8 @@
         <f t="shared" si="0"/>
         <v>5115</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>126450752</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>20591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>44033</v>
       </c>
@@ -1489,16 +1319,8 @@
         <f t="shared" si="0"/>
         <v>5474</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>126449995</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>20989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>44034</v>
       </c>
@@ -1515,16 +1337,8 @@
         <f t="shared" si="0"/>
         <v>5664</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>126449322</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>21472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>44035</v>
       </c>
@@ -1541,16 +1355,8 @@
         <f t="shared" si="0"/>
         <v>6244</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>126448344</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>21870</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>44036</v>
       </c>
@@ -1567,16 +1373,8 @@
         <f t="shared" si="0"/>
         <v>6716</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>126447575</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>22167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>44037</v>
       </c>
@@ -1593,16 +1391,8 @@
         <f t="shared" si="0"/>
         <v>7224</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>126446774</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>22460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>44038</v>
       </c>
@@ -1619,16 +1409,8 @@
         <f t="shared" si="0"/>
         <v>7944</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>126445910</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>22604</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>44039</v>
       </c>
@@ -1645,16 +1427,8 @@
         <f t="shared" si="0"/>
         <v>8174</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>126445316</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>22968</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>44040</v>
       </c>
@@ -1671,16 +1445,8 @@
         <f t="shared" si="0"/>
         <v>8479</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>126444342</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>23637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>44041</v>
       </c>
@@ -1697,16 +1463,8 @@
         <f t="shared" si="0"/>
         <v>9030</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>126443076</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>24352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>44042</v>
       </c>
@@ -1723,16 +1481,8 @@
         <f t="shared" si="0"/>
         <v>10113</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>126441314</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>25031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>44043</v>
       </c>
@@ -1749,16 +1499,8 @@
         <f t="shared" si="0"/>
         <v>10452</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>126440224</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>25782</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>44044</v>
       </c>
@@ -1775,16 +1517,8 @@
         <f t="shared" si="0"/>
         <v>11445</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>126438654</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>26359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>44045</v>
       </c>
@@ -1801,16 +1535,8 @@
         <f t="shared" si="0"/>
         <v>12355</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>126437342</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>26761</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>44046</v>
       </c>
@@ -1827,16 +1553,8 @@
         <f t="shared" si="0"/>
         <v>12605</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>126436359</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>27494</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>44047</v>
       </c>
@@ -1853,16 +1571,8 @@
         <f t="shared" si="0"/>
         <v>13137</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>126435111</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>28210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>44048</v>
       </c>
@@ -1879,16 +1589,8 @@
         <f t="shared" si="0"/>
         <v>13638</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>126433772</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>29048</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>44049</v>
       </c>
@@ -1905,16 +1607,8 @@
         <f t="shared" si="0"/>
         <v>14275</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>126432291</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>29892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>44050</v>
       </c>
@@ -1931,16 +1625,8 @@
         <f t="shared" si="0"/>
         <v>14481</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>126430694</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>31283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>44051</v>
       </c>
@@ -1957,16 +1643,8 @@
         <f t="shared" si="0"/>
         <v>15052</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>126429116</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>32290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>44052</v>
       </c>
@@ -1983,16 +1661,8 @@
         <f t="shared" si="0"/>
         <v>14868</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>126427676</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>33914</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>44053</v>
       </c>
@@ -2009,16 +1679,8 @@
         <f t="shared" si="0"/>
         <v>15115</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>126426841</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>34502</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>44054</v>
       </c>
@@ -2035,16 +1697,8 @@
         <f t="shared" si="0"/>
         <v>15108</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>126426156</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>35194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>44055</v>
       </c>
@@ -2061,16 +1715,8 @@
         <f t="shared" si="0"/>
         <v>15253</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>126425170</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>36035</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44056</v>
       </c>
@@ -2087,16 +1733,8 @@
         <f t="shared" si="0"/>
         <v>15207</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>126423987</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>37264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44057</v>
       </c>
@@ -2113,16 +1751,8 @@
         <f t="shared" si="0"/>
         <v>17240</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>126422640</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>36578</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>44058</v>
       </c>
@@ -2139,16 +1769,8 @@
         <f t="shared" si="0"/>
         <v>14519</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
-        <v>126421407</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>40532</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>44059</v>
       </c>
@@ -2165,16 +1787,8 @@
         <f t="shared" si="0"/>
         <v>14411</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>126420384</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>41663</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>44060</v>
       </c>
@@ -2191,16 +1805,8 @@
         <f t="shared" si="0"/>
         <v>14014</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>126419741</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>42703</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>44061</v>
       </c>
@@ -2217,16 +1823,8 @@
         <f t="shared" si="0"/>
         <v>13536</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
-        <v>126418822</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>44100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>44062</v>
       </c>
@@ -2243,16 +1841,8 @@
         <f t="shared" si="0"/>
         <v>13794</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
-        <v>126417730</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>44934</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>44063</v>
       </c>
@@ -2269,16 +1859,8 @@
         <f t="shared" si="0"/>
         <v>13633</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>126416558</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>46267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>44064</v>
       </c>
@@ -2295,16 +1877,8 @@
         <f t="shared" si="0"/>
         <v>13510</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>126415509</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>47439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>44065</v>
       </c>
@@ -2321,16 +1895,8 @@
         <f t="shared" si="0"/>
         <v>13319</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
-        <v>126414542</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>48597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>44066</v>
       </c>
@@ -2347,16 +1913,8 @@
         <f t="shared" si="0"/>
         <v>13151</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>126413800</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>49507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>44067</v>
       </c>
@@ -2373,16 +1931,8 @@
         <f t="shared" si="0"/>
         <v>12868</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>126413300</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>50290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>44068</v>
       </c>
@@ -2399,16 +1949,8 @@
         <f t="shared" si="0"/>
         <v>12577</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>126412570</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>51311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>44069</v>
       </c>
@@ -2425,16 +1967,8 @@
         <f t="shared" si="0"/>
         <v>12142</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>126411679</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>52637</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>44070</v>
       </c>
@@ -2451,16 +1985,8 @@
         <f t="shared" si="0"/>
         <v>11870</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>126410805</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
-        <v>53783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>44071</v>
       </c>
@@ -2477,16 +2003,8 @@
         <f t="shared" si="0"/>
         <v>11557</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>126409959</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>54942</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>44072</v>
       </c>
@@ -2503,16 +2021,8 @@
         <f t="shared" si="0"/>
         <v>11199</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>126409105</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>56154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>44073</v>
       </c>
@@ -2529,16 +2039,8 @@
         <f t="shared" si="0"/>
         <v>10973</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>126408500</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>56985</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>44074</v>
       </c>
@@ -2555,16 +2057,8 @@
         <f t="shared" si="0"/>
         <v>10760</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>126408062</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>57636</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>44075</v>
       </c>
@@ -2581,16 +2075,8 @@
         <f t="shared" si="0"/>
         <v>10207</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>126407435</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>58816</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>44076</v>
       </c>
@@ -2607,16 +2093,8 @@
         <f t="shared" si="0"/>
         <v>10184</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>126406839</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>59435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>44077</v>
       </c>
@@ -2633,16 +2111,8 @@
         <f t="shared" si="0"/>
         <v>10744</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>126406180</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>59534</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>44078</v>
       </c>
@@ -2656,19 +2126,11 @@
         <v>60093</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">B67-C67-D67</f>
+        <f t="shared" ref="E67:E130" si="1">B67-C67-D67</f>
         <v>9421</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F130" si="4">126476458 -E67-D67-C67</f>
-        <v>126405592</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G130" si="5">D67+C67</f>
-        <v>61445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>44079</v>
       </c>
@@ -2682,19 +2144,11 @@
         <v>61099</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9007</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="4"/>
-        <v>126404991</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="5"/>
-        <v>62460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>44080</v>
       </c>
@@ -2708,19 +2162,11 @@
         <v>61730</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8822</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="4"/>
-        <v>126404540</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="5"/>
-        <v>63096</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>44081</v>
       </c>
@@ -2734,19 +2180,11 @@
         <v>62190</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8646</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="4"/>
-        <v>126404245</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="5"/>
-        <v>63567</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>44082</v>
       </c>
@@ -2760,19 +2198,11 @@
         <v>62936</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8390</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="4"/>
-        <v>126403734</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="5"/>
-        <v>64334</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>44083</v>
       </c>
@@ -2786,19 +2216,11 @@
         <v>63734</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8118</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="4"/>
-        <v>126403194</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="5"/>
-        <v>65146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>44084</v>
       </c>
@@ -2812,19 +2234,11 @@
         <v>64489</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8011</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="4"/>
-        <v>126402542</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="5"/>
-        <v>65905</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>44085</v>
       </c>
@@ -2838,19 +2252,11 @@
         <v>65244</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7886</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="4"/>
-        <v>126401900</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="5"/>
-        <v>66672</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>44086</v>
       </c>
@@ -2864,19 +2270,11 @@
         <v>65934</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7831</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="4"/>
-        <v>126401252</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="5"/>
-        <v>67375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>44087</v>
       </c>
@@ -2890,19 +2288,11 @@
         <v>66524</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7674</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="4"/>
-        <v>126400812</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="5"/>
-        <v>67972</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>44088</v>
       </c>
@@ -2916,19 +2306,11 @@
         <v>66901</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7558</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="4"/>
-        <v>126400544</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="5"/>
-        <v>68356</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>44089</v>
       </c>
@@ -2942,19 +2324,11 @@
         <v>66901</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8082</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="4"/>
-        <v>126400012</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="5"/>
-        <v>68364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>44090</v>
       </c>
@@ -2968,19 +2342,11 @@
         <v>68110</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7406</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="4"/>
-        <v>126399461</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="5"/>
-        <v>69591</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>44091</v>
       </c>
@@ -2994,19 +2360,11 @@
         <v>68827</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7171</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="4"/>
-        <v>126398970</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="5"/>
-        <v>70317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>44092</v>
       </c>
@@ -3020,19 +2378,11 @@
         <v>69468</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7093</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="4"/>
-        <v>126398397</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="5"/>
-        <v>70968</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>44093</v>
       </c>
@@ -3046,19 +2396,11 @@
         <v>70051</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7107</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="4"/>
-        <v>126397796</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="5"/>
-        <v>71555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>44094</v>
       </c>
@@ -3072,19 +2414,11 @@
         <v>70604</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7030</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="4"/>
-        <v>126397316</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="5"/>
-        <v>72112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>44095</v>
       </c>
@@ -3098,19 +2432,11 @@
         <v>70970</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6974</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="4"/>
-        <v>126396996</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="5"/>
-        <v>72488</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>44096</v>
       </c>
@@ -3124,19 +2450,11 @@
         <v>71214</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7040</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="4"/>
-        <v>126396685</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="5"/>
-        <v>72733</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>44097</v>
       </c>
@@ -3150,19 +2468,11 @@
         <v>71547</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6937</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="4"/>
-        <v>126396449</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="5"/>
-        <v>73072</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>44098</v>
       </c>
@@ -3176,19 +2486,11 @@
         <v>72066</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6884</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="4"/>
-        <v>126395968</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="5"/>
-        <v>73606</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>44099</v>
       </c>
@@ -3202,19 +2504,11 @@
         <v>73016</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6494</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="4"/>
-        <v>126395404</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="5"/>
-        <v>74560</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>44100</v>
       </c>
@@ -3228,19 +2522,11 @@
         <v>73677</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6479</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="4"/>
-        <v>126394755</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="5"/>
-        <v>75224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>44101</v>
       </c>
@@ -3254,19 +2540,11 @@
         <v>73677</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6960</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="4"/>
-        <v>126394272</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="5"/>
-        <v>75226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>44102</v>
       </c>
@@ -3280,19 +2558,11 @@
         <v>74495</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6428</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="4"/>
-        <v>126393974</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="5"/>
-        <v>76056</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>44103</v>
       </c>
@@ -3306,19 +2576,11 @@
         <v>74962</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6492</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="4"/>
-        <v>126393436</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="5"/>
-        <v>76530</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>44104</v>
       </c>
@@ -3332,19 +2594,11 @@
         <v>75522</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6494</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="4"/>
-        <v>126392867</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="5"/>
-        <v>77097</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>44105</v>
       </c>
@@ -3358,19 +2612,11 @@
         <v>76081</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6583</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="4"/>
-        <v>126392214</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="5"/>
-        <v>77661</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>44106</v>
       </c>
@@ -3384,19 +2630,11 @@
         <v>76700</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6477</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="4"/>
-        <v>126391690</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="5"/>
-        <v>78291</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>44107</v>
       </c>
@@ -3410,19 +2648,11 @@
         <v>76700</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7051</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="4"/>
-        <v>126391113</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="5"/>
-        <v>78294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>44108</v>
       </c>
@@ -3436,19 +2666,11 @@
         <v>77851</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6297</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="4"/>
-        <v>126390712</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="5"/>
-        <v>79449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>44109</v>
       </c>
@@ -3462,19 +2684,11 @@
         <v>78071</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6354</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="4"/>
-        <v>126390431</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="5"/>
-        <v>79673</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>44110</v>
       </c>
@@ -3488,19 +2702,11 @@
         <v>78521</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6410</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="4"/>
-        <v>126389918</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="5"/>
-        <v>80130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>44111</v>
       </c>
@@ -3514,19 +2720,11 @@
         <v>79123</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6302</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="4"/>
-        <v>126389419</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="5"/>
-        <v>80737</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>44112</v>
       </c>
@@ -3540,19 +2738,11 @@
         <v>79674</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6388</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="4"/>
-        <v>126388779</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="5"/>
-        <v>81291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>44113</v>
       </c>
@@ -3566,19 +2756,11 @@
         <v>80140</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6504</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="4"/>
-        <v>126388191</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="5"/>
-        <v>81763</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>44114</v>
       </c>
@@ -3592,19 +2774,11 @@
         <v>80798</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6538</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="4"/>
-        <v>126387496</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="5"/>
-        <v>82424</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>44115</v>
       </c>
@@ -3618,19 +2792,11 @@
         <v>81266</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6506</v>
       </c>
-      <c r="F104">
-        <f t="shared" si="4"/>
-        <v>126387058</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="5"/>
-        <v>82894</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>44116</v>
       </c>
@@ -3644,19 +2810,11 @@
         <v>81552</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6469</v>
       </c>
-      <c r="F105">
-        <f t="shared" si="4"/>
-        <v>126386806</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="5"/>
-        <v>83183</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>44117</v>
       </c>
@@ -3670,19 +2828,11 @@
         <v>82063</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6455</v>
       </c>
-      <c r="F106">
-        <f t="shared" si="4"/>
-        <v>126386305</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="5"/>
-        <v>83698</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>44118</v>
       </c>
@@ -3696,19 +2846,11 @@
         <v>82576</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6472</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="4"/>
-        <v>126385764</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="5"/>
-        <v>84222</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>44119</v>
       </c>
@@ -3722,19 +2864,11 @@
         <v>83272</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6480</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="4"/>
-        <v>126385056</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="5"/>
-        <v>84922</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>44120</v>
       </c>
@@ -3748,19 +2882,11 @@
         <v>83882</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6498</v>
       </c>
-      <c r="F109">
-        <f t="shared" si="4"/>
-        <v>126384414</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="5"/>
-        <v>85546</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>44121</v>
       </c>
@@ -3774,19 +2900,11 @@
         <v>84461</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6539</v>
       </c>
-      <c r="F110">
-        <f t="shared" si="4"/>
-        <v>126383788</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="5"/>
-        <v>86131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>44122</v>
       </c>
@@ -3800,19 +2918,11 @@
         <v>84461</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6965</v>
       </c>
-      <c r="F111">
-        <f t="shared" si="4"/>
-        <v>126383360</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="5"/>
-        <v>86133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>44123</v>
       </c>
@@ -3826,19 +2936,11 @@
         <v>85310</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6422</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="4"/>
-        <v>126383050</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="5"/>
-        <v>86986</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>44124</v>
       </c>
@@ -3852,19 +2954,11 @@
         <v>85867</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6349</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="4"/>
-        <v>126382563</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="5"/>
-        <v>87546</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>44125</v>
       </c>
@@ -3878,19 +2972,11 @@
         <v>86429</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="F114">
-        <f t="shared" si="4"/>
-        <v>126381943</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="5"/>
-        <v>88115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>44126</v>
       </c>
@@ -3904,19 +2990,11 @@
         <v>87022</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6415</v>
       </c>
-      <c r="F115">
-        <f t="shared" si="4"/>
-        <v>126381324</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="5"/>
-        <v>88719</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>44127</v>
       </c>
@@ -3930,19 +3008,11 @@
         <v>87600</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6562</v>
       </c>
-      <c r="F116">
-        <f t="shared" si="4"/>
-        <v>126380590</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="5"/>
-        <v>89306</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>44128</v>
       </c>
@@ -3956,19 +3026,11 @@
         <v>88138</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6751</v>
       </c>
-      <c r="F117">
-        <f t="shared" si="4"/>
-        <v>126379859</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="5"/>
-        <v>89848</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>44129</v>
       </c>
@@ -3982,19 +3044,11 @@
         <v>88610</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6769</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="4"/>
-        <v>126379363</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="5"/>
-        <v>90326</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>44130</v>
       </c>
@@ -4008,19 +3062,11 @@
         <v>89031</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6751</v>
       </c>
-      <c r="F119">
-        <f t="shared" si="4"/>
-        <v>126378955</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="5"/>
-        <v>90752</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>44131</v>
       </c>
@@ -4034,19 +3080,11 @@
         <v>89465</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6955</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="4"/>
-        <v>126378312</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="5"/>
-        <v>91191</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>44132</v>
       </c>
@@ -4060,19 +3098,11 @@
         <v>90118</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7028</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="4"/>
-        <v>126377581</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="5"/>
-        <v>91849</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>44133</v>
       </c>
@@ -4086,19 +3116,11 @@
         <v>90624</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7302</v>
       </c>
-      <c r="F122">
-        <f t="shared" si="4"/>
-        <v>126376784</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="5"/>
-        <v>92372</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>44134</v>
       </c>
@@ -4112,19 +3134,11 @@
         <v>91184</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7510</v>
       </c>
-      <c r="F123">
-        <f t="shared" si="4"/>
-        <v>126376008</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="5"/>
-        <v>92940</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>44135</v>
       </c>
@@ -4138,19 +3152,11 @@
         <v>89765</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9793</v>
       </c>
-      <c r="F124">
-        <f t="shared" si="4"/>
-        <v>126375131</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="5"/>
-        <v>91534</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>44136</v>
       </c>
@@ -4164,19 +3170,11 @@
         <v>92250</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7917</v>
       </c>
-      <c r="F125">
-        <f t="shared" si="4"/>
-        <v>126374515</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="5"/>
-        <v>94026</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>44137</v>
       </c>
@@ -4190,19 +3188,11 @@
         <v>92673</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7971</v>
       </c>
-      <c r="F126">
-        <f t="shared" si="4"/>
-        <v>126374027</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="5"/>
-        <v>94460</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>44138</v>
       </c>
@@ -4216,19 +3206,11 @@
         <v>93133</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8382</v>
       </c>
-      <c r="F127">
-        <f t="shared" si="4"/>
-        <v>126373149</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="5"/>
-        <v>94927</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>44139</v>
       </c>
@@ -4242,19 +3224,11 @@
         <v>93564</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8565</v>
       </c>
-      <c r="F128">
-        <f t="shared" si="4"/>
-        <v>126372530</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="5"/>
-        <v>95363</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>44140</v>
       </c>
@@ -4268,19 +3242,11 @@
         <v>94376</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8782</v>
       </c>
-      <c r="F129">
-        <f t="shared" si="4"/>
-        <v>126371494</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="5"/>
-        <v>96182</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>44141</v>
       </c>
@@ -4294,19 +3260,11 @@
         <v>95010</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9316</v>
       </c>
-      <c r="F130">
-        <f t="shared" si="4"/>
-        <v>126370322</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="5"/>
-        <v>96820</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>44142</v>
       </c>
@@ -4320,19 +3278,11 @@
         <v>95703</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E193" si="6">B131-C131-D131</f>
+        <f t="shared" ref="E131:E193" si="2">B131-C131-D131</f>
         <v>9921</v>
       </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F194" si="7">126476458 -E131-D131-C131</f>
-        <v>126369019</v>
-      </c>
-      <c r="G131">
-        <f t="shared" ref="G131:G194" si="8">D131+C131</f>
-        <v>97518</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>44143</v>
       </c>
@@ -4346,19 +3296,11 @@
         <v>96430</v>
       </c>
       <c r="E132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10143</v>
       </c>
-      <c r="F132">
-        <f t="shared" si="7"/>
-        <v>126368064</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="8"/>
-        <v>98251</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>44144</v>
       </c>
@@ -4372,19 +3314,11 @@
         <v>96684</v>
       </c>
       <c r="E133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10673</v>
       </c>
-      <c r="F133">
-        <f t="shared" si="7"/>
-        <v>126367267</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="8"/>
-        <v>98518</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>44145</v>
       </c>
@@ -4398,19 +3332,11 @@
         <v>98487</v>
       </c>
       <c r="E134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10160</v>
       </c>
-      <c r="F134">
-        <f t="shared" si="7"/>
-        <v>126365971</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="8"/>
-        <v>100327</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>44146</v>
       </c>
@@ -4424,19 +3350,11 @@
         <v>98305</v>
       </c>
       <c r="E135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11859</v>
       </c>
-      <c r="F135">
-        <f t="shared" si="7"/>
-        <v>126364447</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="8"/>
-        <v>100152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>44147</v>
       </c>
@@ -4450,19 +3368,11 @@
         <v>99282</v>
       </c>
       <c r="E136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12519</v>
       </c>
-      <c r="F136">
-        <f t="shared" si="7"/>
-        <v>126362803</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="8"/>
-        <v>101136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>44148</v>
       </c>
@@ -4476,19 +3386,11 @@
         <v>100197</v>
       </c>
       <c r="E137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>13299</v>
       </c>
-      <c r="F137">
-        <f t="shared" si="7"/>
-        <v>126361098</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="8"/>
-        <v>102061</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>44149</v>
       </c>
@@ -4502,19 +3404,11 @@
         <v>101162</v>
       </c>
       <c r="E138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>14086</v>
       </c>
-      <c r="F138">
-        <f t="shared" si="7"/>
-        <v>126359345</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="8"/>
-        <v>103027</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>44150</v>
       </c>
@@ -4528,19 +3422,11 @@
         <v>91954</v>
       </c>
       <c r="E139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>24783</v>
       </c>
-      <c r="F139">
-        <f t="shared" si="7"/>
-        <v>126357847</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="8"/>
-        <v>93828</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>44151</v>
       </c>
@@ -4554,19 +3440,11 @@
         <v>102810</v>
       </c>
       <c r="E140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>14864</v>
       </c>
-      <c r="F140">
-        <f t="shared" si="7"/>
-        <v>126356901</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="8"/>
-        <v>104693</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>44152</v>
       </c>
@@ -4580,19 +3458,11 @@
         <v>103778</v>
       </c>
       <c r="E141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>15574</v>
       </c>
-      <c r="F141">
-        <f t="shared" si="7"/>
-        <v>126355211</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="8"/>
-        <v>105673</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>44153</v>
       </c>
@@ -4606,19 +3476,11 @@
         <v>104837</v>
       </c>
       <c r="E142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>16732</v>
       </c>
-      <c r="F142">
-        <f t="shared" si="7"/>
-        <v>126352981</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="8"/>
-        <v>106745</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>44154</v>
       </c>
@@ -4632,19 +3494,11 @@
         <v>106074</v>
       </c>
       <c r="E143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>17865</v>
       </c>
-      <c r="F143">
-        <f t="shared" si="7"/>
-        <v>126350599</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="8"/>
-        <v>107994</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>44155</v>
       </c>
@@ -4658,19 +3512,11 @@
         <v>107521</v>
       </c>
       <c r="E144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>18834</v>
       </c>
-      <c r="F144">
-        <f t="shared" si="7"/>
-        <v>126348173</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="8"/>
-        <v>109451</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>44156</v>
       </c>
@@ -4684,19 +3530,11 @@
         <v>108981</v>
       </c>
       <c r="E145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>19958</v>
       </c>
-      <c r="F145">
-        <f t="shared" si="7"/>
-        <v>126345587</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="8"/>
-        <v>110913</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>44157</v>
       </c>
@@ -4710,19 +3548,11 @@
         <v>110273</v>
       </c>
       <c r="E146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20818</v>
       </c>
-      <c r="F146">
-        <f t="shared" si="7"/>
-        <v>126343424</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="8"/>
-        <v>112216</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>44158</v>
       </c>
@@ -4736,19 +3566,11 @@
         <v>111343</v>
       </c>
       <c r="E147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21262</v>
       </c>
-      <c r="F147">
-        <f t="shared" si="7"/>
-        <v>126341904</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="8"/>
-        <v>113292</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>44159</v>
       </c>
@@ -4762,19 +3584,11 @@
         <v>112385</v>
       </c>
       <c r="E148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21438</v>
       </c>
-      <c r="F148">
-        <f t="shared" si="7"/>
-        <v>126340672</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="8"/>
-        <v>114348</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>44160</v>
       </c>
@@ -4788,19 +3602,11 @@
         <v>114569</v>
       </c>
       <c r="E149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21183</v>
       </c>
-      <c r="F149">
-        <f t="shared" si="7"/>
-        <v>126338723</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="8"/>
-        <v>116552</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>44161</v>
       </c>
@@ -4814,19 +3620,11 @@
         <v>116222</v>
       </c>
       <c r="E150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>22007</v>
       </c>
-      <c r="F150">
-        <f t="shared" si="7"/>
-        <v>126336233</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="8"/>
-        <v>118218</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>44162</v>
       </c>
@@ -4840,19 +3638,11 @@
         <v>117709</v>
       </c>
       <c r="E151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>23041</v>
       </c>
-      <c r="F151">
-        <f t="shared" si="7"/>
-        <v>126333680</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="8"/>
-        <v>119737</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>44163</v>
       </c>
@@ -4866,19 +3656,11 @@
         <v>120103</v>
       </c>
       <c r="E152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>23312</v>
       </c>
-      <c r="F152">
-        <f t="shared" si="7"/>
-        <v>126331001</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="8"/>
-        <v>122145</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>44164</v>
       </c>
@@ -4892,19 +3674,11 @@
         <v>121735</v>
       </c>
       <c r="E153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>23723</v>
       </c>
-      <c r="F153">
-        <f t="shared" si="7"/>
-        <v>126328943</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="8"/>
-        <v>123792</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>44165</v>
       </c>
@@ -4918,19 +3692,11 @@
         <v>127289</v>
       </c>
       <c r="E154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>19597</v>
       </c>
-      <c r="F154">
-        <f t="shared" si="7"/>
-        <v>126327496</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="8"/>
-        <v>129365</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>44166</v>
       </c>
@@ -4944,19 +3710,11 @@
         <v>125304</v>
       </c>
       <c r="E155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>23563</v>
       </c>
-      <c r="F155">
-        <f t="shared" si="7"/>
-        <v>126325482</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="8"/>
-        <v>127413</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>44167</v>
       </c>
@@ -4970,19 +3728,11 @@
         <v>127148</v>
       </c>
       <c r="E156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>24143</v>
       </c>
-      <c r="F156">
-        <f t="shared" si="7"/>
-        <v>126323026</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="8"/>
-        <v>129289</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>44168</v>
       </c>
@@ -4996,19 +3746,11 @@
         <v>129085</v>
       </c>
       <c r="E157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>24679</v>
       </c>
-      <c r="F157">
-        <f t="shared" si="7"/>
-        <v>126320520</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="8"/>
-        <v>131259</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>44169</v>
       </c>
@@ -5022,19 +3764,11 @@
         <v>131020</v>
       </c>
       <c r="E158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>25157</v>
       </c>
-      <c r="F158">
-        <f t="shared" si="7"/>
-        <v>126318071</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="8"/>
-        <v>133230</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>44170</v>
       </c>
@@ -5048,19 +3782,11 @@
         <v>133287</v>
       </c>
       <c r="E159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>25354</v>
       </c>
-      <c r="F159">
-        <f t="shared" si="7"/>
-        <v>126315588</v>
-      </c>
-      <c r="G159">
-        <f t="shared" si="8"/>
-        <v>135516</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>44171</v>
       </c>
@@ -5074,19 +3800,11 @@
         <v>135121</v>
       </c>
       <c r="E160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>25537</v>
       </c>
-      <c r="F160">
-        <f t="shared" si="7"/>
-        <v>126313541</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="8"/>
-        <v>137380</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>44172</v>
       </c>
@@ -5100,19 +3818,11 @@
         <v>136747</v>
       </c>
       <c r="E161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>25388</v>
       </c>
-      <c r="F161">
-        <f t="shared" si="7"/>
-        <v>126312024</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="8"/>
-        <v>139046</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>44173</v>
       </c>
@@ -5126,19 +3836,11 @@
         <v>138838</v>
       </c>
       <c r="E162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>25420</v>
       </c>
-      <c r="F162">
-        <f t="shared" si="7"/>
-        <v>126309866</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="8"/>
-        <v>141172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>44174</v>
       </c>
@@ -5152,19 +3854,11 @@
         <v>140466</v>
       </c>
       <c r="E163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>26587</v>
       </c>
-      <c r="F163">
-        <f t="shared" si="7"/>
-        <v>126307029</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="8"/>
-        <v>142842</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>44175</v>
       </c>
@@ -5178,19 +3872,11 @@
         <v>142850</v>
       </c>
       <c r="E164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>27161</v>
       </c>
-      <c r="F164">
-        <f t="shared" si="7"/>
-        <v>126304052</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="8"/>
-        <v>145245</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>44176</v>
       </c>
@@ -5204,19 +3890,11 @@
         <v>144858</v>
       </c>
       <c r="E165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>28006</v>
       </c>
-      <c r="F165">
-        <f t="shared" si="7"/>
-        <v>126301148</v>
-      </c>
-      <c r="G165">
-        <f t="shared" si="8"/>
-        <v>147304</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>44177</v>
       </c>
@@ -5230,19 +3908,11 @@
         <v>147368</v>
       </c>
       <c r="E166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>28442</v>
       </c>
-      <c r="F166">
-        <f t="shared" si="7"/>
-        <v>126298186</v>
-      </c>
-      <c r="G166">
-        <f t="shared" si="8"/>
-        <v>149830</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>44178</v>
       </c>
@@ -5256,19 +3926,11 @@
         <v>149130</v>
       </c>
       <c r="E167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>29028</v>
       </c>
-      <c r="F167">
-        <f t="shared" si="7"/>
-        <v>126295819</v>
-      </c>
-      <c r="G167">
-        <f t="shared" si="8"/>
-        <v>151611</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>44179</v>
       </c>
@@ -5282,19 +3944,11 @@
         <v>150791</v>
       </c>
       <c r="E168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>28990</v>
       </c>
-      <c r="F168">
-        <f t="shared" si="7"/>
-        <v>126294147</v>
-      </c>
-      <c r="G168">
-        <f t="shared" si="8"/>
-        <v>153321</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>44180</v>
       </c>
@@ -5308,19 +3962,11 @@
         <v>153363</v>
       </c>
       <c r="E169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>28808</v>
       </c>
-      <c r="F169">
-        <f t="shared" si="7"/>
-        <v>126291706</v>
-      </c>
-      <c r="G169">
-        <f t="shared" si="8"/>
-        <v>155944</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>44181</v>
       </c>
@@ -5334,19 +3980,11 @@
         <v>155391</v>
       </c>
       <c r="E170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>29737</v>
       </c>
-      <c r="F170">
-        <f t="shared" si="7"/>
-        <v>126288707</v>
-      </c>
-      <c r="G170">
-        <f t="shared" si="8"/>
-        <v>158014</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>44182</v>
       </c>
@@ -5360,19 +3998,11 @@
         <v>158131</v>
       </c>
       <c r="E171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30158</v>
       </c>
-      <c r="F171">
-        <f t="shared" si="7"/>
-        <v>126285508</v>
-      </c>
-      <c r="G171">
-        <f t="shared" si="8"/>
-        <v>160792</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>44183</v>
       </c>
@@ -5386,19 +4016,11 @@
         <v>160630</v>
       </c>
       <c r="E172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30414</v>
       </c>
-      <c r="F172">
-        <f t="shared" si="7"/>
-        <v>126282705</v>
-      </c>
-      <c r="G172">
-        <f t="shared" si="8"/>
-        <v>163339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>44184</v>
       </c>
@@ -5412,19 +4034,11 @@
         <v>163152</v>
       </c>
       <c r="E173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30914</v>
       </c>
-      <c r="F173">
-        <f t="shared" si="7"/>
-        <v>126279643</v>
-      </c>
-      <c r="G173">
-        <f t="shared" si="8"/>
-        <v>165901</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>44185</v>
       </c>
@@ -5438,19 +4052,11 @@
         <v>165177</v>
       </c>
       <c r="E174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>31309</v>
       </c>
-      <c r="F174">
-        <f t="shared" si="7"/>
-        <v>126277188</v>
-      </c>
-      <c r="G174">
-        <f t="shared" si="8"/>
-        <v>167961</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>44186</v>
       </c>
@@ -5464,19 +4070,11 @@
         <v>167357</v>
       </c>
       <c r="E175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>30884</v>
       </c>
-      <c r="F175">
-        <f t="shared" si="7"/>
-        <v>126275384</v>
-      </c>
-      <c r="G175">
-        <f t="shared" si="8"/>
-        <v>170190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>44187</v>
       </c>
@@ -5490,19 +4088,11 @@
         <v>169186</v>
       </c>
       <c r="E176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>31669</v>
       </c>
-      <c r="F176">
-        <f t="shared" si="7"/>
-        <v>126272726</v>
-      </c>
-      <c r="G176">
-        <f t="shared" si="8"/>
-        <v>172063</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>44188</v>
       </c>
@@ -5516,19 +4106,11 @@
         <v>171959</v>
       </c>
       <c r="E177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>32107</v>
       </c>
-      <c r="F177">
-        <f t="shared" si="7"/>
-        <v>126269451</v>
-      </c>
-      <c r="G177">
-        <f t="shared" si="8"/>
-        <v>174900</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>44189</v>
       </c>
@@ -5542,19 +4124,11 @@
         <v>174723</v>
       </c>
       <c r="E178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>33079</v>
       </c>
-      <c r="F178">
-        <f t="shared" si="7"/>
-        <v>126265689</v>
-      </c>
-      <c r="G178">
-        <f t="shared" si="8"/>
-        <v>177690</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>44190</v>
       </c>
@@ -5568,19 +4142,11 @@
         <v>177637</v>
       </c>
       <c r="E179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>33922</v>
       </c>
-      <c r="F179">
-        <f t="shared" si="7"/>
-        <v>126261883</v>
-      </c>
-      <c r="G179">
-        <f t="shared" si="8"/>
-        <v>180653</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>44191</v>
       </c>
@@ -5594,19 +4160,11 @@
         <v>180032</v>
       </c>
       <c r="E180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>35373</v>
       </c>
-      <c r="F180">
-        <f t="shared" si="7"/>
-        <v>126257991</v>
-      </c>
-      <c r="G180">
-        <f t="shared" si="8"/>
-        <v>183094</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>44192</v>
       </c>
@@ -5620,19 +4178,11 @@
         <v>182440</v>
       </c>
       <c r="E181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>35872</v>
       </c>
-      <c r="F181">
-        <f t="shared" si="7"/>
-        <v>126255046</v>
-      </c>
-      <c r="G181">
-        <f t="shared" si="8"/>
-        <v>185540</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>44193</v>
       </c>
@@ -5646,19 +4196,11 @@
         <v>184506</v>
       </c>
       <c r="E182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>36128</v>
       </c>
-      <c r="F182">
-        <f t="shared" si="7"/>
-        <v>126252672</v>
-      </c>
-      <c r="G182">
-        <f t="shared" si="8"/>
-        <v>187658</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>44194</v>
       </c>
@@ -5672,19 +4214,11 @@
         <v>186790</v>
       </c>
       <c r="E183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>37429</v>
       </c>
-      <c r="F183">
-        <f t="shared" si="7"/>
-        <v>126249043</v>
-      </c>
-      <c r="G183">
-        <f t="shared" si="8"/>
-        <v>189986</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>44195</v>
       </c>
@@ -5698,19 +4232,11 @@
         <v>189310</v>
       </c>
       <c r="E184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>38718</v>
       </c>
-      <c r="F184">
-        <f t="shared" si="7"/>
-        <v>126245187</v>
-      </c>
-      <c r="G184">
-        <f t="shared" si="8"/>
-        <v>192553</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>44196</v>
       </c>
@@ -5724,19 +4250,11 @@
         <v>191295</v>
       </c>
       <c r="E185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>41224</v>
       </c>
-      <c r="F185">
-        <f t="shared" si="7"/>
-        <v>126240647</v>
-      </c>
-      <c r="G185">
-        <f t="shared" si="8"/>
-        <v>194587</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>44197</v>
       </c>
@@ -5750,19 +4268,11 @@
         <v>193558</v>
       </c>
       <c r="E186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>41970</v>
       </c>
-      <c r="F186">
-        <f t="shared" si="7"/>
-        <v>126237390</v>
-      </c>
-      <c r="G186">
-        <f t="shared" si="8"/>
-        <v>197098</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>44198</v>
       </c>
@@ -5776,19 +4286,11 @@
         <v>196264</v>
       </c>
       <c r="E187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>42262</v>
       </c>
-      <c r="F187">
-        <f t="shared" si="7"/>
-        <v>126234361</v>
-      </c>
-      <c r="G187">
-        <f t="shared" si="8"/>
-        <v>199835</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>44199</v>
       </c>
@@ -5802,19 +4304,11 @@
         <v>198330</v>
       </c>
       <c r="E188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>43332</v>
       </c>
-      <c r="F188">
-        <f t="shared" si="7"/>
-        <v>126231165</v>
-      </c>
-      <c r="G188">
-        <f t="shared" si="8"/>
-        <v>201961</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>44200</v>
       </c>
@@ -5828,19 +4322,11 @@
         <v>200520</v>
       </c>
       <c r="E189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>44426</v>
       </c>
-      <c r="F189">
-        <f t="shared" si="7"/>
-        <v>126227833</v>
-      </c>
-      <c r="G189">
-        <f t="shared" si="8"/>
-        <v>204199</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>44201</v>
       </c>
@@ -5854,19 +4340,11 @@
         <v>203265</v>
       </c>
       <c r="E190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>46551</v>
       </c>
-      <c r="F190">
-        <f t="shared" si="7"/>
-        <v>126222887</v>
-      </c>
-      <c r="G190">
-        <f t="shared" si="8"/>
-        <v>207020</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>44202</v>
       </c>
@@ -5880,19 +4358,11 @@
         <v>206883</v>
       </c>
       <c r="E191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>48818</v>
       </c>
-      <c r="F191">
-        <f t="shared" si="7"/>
-        <v>126216937</v>
-      </c>
-      <c r="G191">
-        <f t="shared" si="8"/>
-        <v>210703</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>44203</v>
       </c>
@@ -5906,19 +4376,11 @@
         <v>210295</v>
       </c>
       <c r="E192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>52905</v>
       </c>
-      <c r="F192">
-        <f t="shared" si="7"/>
-        <v>126209374</v>
-      </c>
-      <c r="G192">
-        <f t="shared" si="8"/>
-        <v>214179</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>44204</v>
       </c>
@@ -5932,19 +4394,11 @@
         <v>213581</v>
       </c>
       <c r="E193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>57404</v>
       </c>
-      <c r="F193">
-        <f t="shared" si="7"/>
-        <v>126201511</v>
-      </c>
-      <c r="G193">
-        <f t="shared" si="8"/>
-        <v>217543</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>44205</v>
       </c>
@@ -5958,19 +4412,11 @@
         <v>217213</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="9">B194-C194-D194</f>
+        <f t="shared" ref="E194:E257" si="3">B194-C194-D194</f>
         <v>61503</v>
       </c>
-      <c r="F194">
-        <f t="shared" si="7"/>
-        <v>126193721</v>
-      </c>
-      <c r="G194">
-        <f t="shared" si="8"/>
-        <v>221234</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>44206</v>
       </c>
@@ -5984,19 +4430,11 @@
         <v>220380</v>
       </c>
       <c r="E195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>64372</v>
       </c>
-      <c r="F195">
-        <f t="shared" ref="F195:F258" si="10">126476458 -E195-D195-C195</f>
-        <v>126187640</v>
-      </c>
-      <c r="G195">
-        <f t="shared" ref="G195:G258" si="11">D195+C195</f>
-        <v>224446</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>44207</v>
       </c>
@@ -6010,19 +4448,11 @@
         <v>222807</v>
       </c>
       <c r="E196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>66825</v>
       </c>
-      <c r="F196">
-        <f t="shared" si="10"/>
-        <v>126182712</v>
-      </c>
-      <c r="G196">
-        <f t="shared" si="11"/>
-        <v>226921</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>44208</v>
       </c>
@@ -6036,19 +4466,11 @@
         <v>225240</v>
       </c>
       <c r="E197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>68903</v>
       </c>
-      <c r="F197">
-        <f t="shared" si="10"/>
-        <v>126178137</v>
-      </c>
-      <c r="G197">
-        <f t="shared" si="11"/>
-        <v>229418</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>44209</v>
       </c>
@@ -6062,19 +4484,11 @@
         <v>228917</v>
       </c>
       <c r="E198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>70948</v>
       </c>
-      <c r="F198">
-        <f t="shared" si="10"/>
-        <v>126172318</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="11"/>
-        <v>233192</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>44210</v>
       </c>
@@ -6088,19 +4502,11 @@
         <v>233509</v>
       </c>
       <c r="E199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>72884</v>
       </c>
-      <c r="F199">
-        <f t="shared" si="10"/>
-        <v>126165724</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="11"/>
-        <v>237850</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>44211</v>
       </c>
@@ -6114,19 +4520,11 @@
         <v>238311</v>
       </c>
       <c r="E200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>75141</v>
       </c>
-      <c r="F200">
-        <f t="shared" si="10"/>
-        <v>126158587</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="11"/>
-        <v>242730</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>44212</v>
       </c>
@@ -6140,19 +4538,11 @@
         <v>243817</v>
       </c>
       <c r="E201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>76650</v>
       </c>
-      <c r="F201">
-        <f t="shared" si="10"/>
-        <v>126151516</v>
-      </c>
-      <c r="G201">
-        <f t="shared" si="11"/>
-        <v>248292</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>44213</v>
       </c>
@@ -6166,19 +4556,11 @@
         <v>248332</v>
       </c>
       <c r="E202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>77859</v>
       </c>
-      <c r="F202">
-        <f t="shared" si="10"/>
-        <v>126145743</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="11"/>
-        <v>252856</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>44214</v>
       </c>
@@ -6192,19 +4574,11 @@
         <v>252631</v>
       </c>
       <c r="E203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>78392</v>
       </c>
-      <c r="F203">
-        <f t="shared" si="10"/>
-        <v>126140853</v>
-      </c>
-      <c r="G203">
-        <f t="shared" si="11"/>
-        <v>257213</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>44215</v>
       </c>
@@ -6218,19 +4592,11 @@
         <v>257563</v>
       </c>
       <c r="E204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>78740</v>
       </c>
-      <c r="F204">
-        <f t="shared" si="10"/>
-        <v>126135469</v>
-      </c>
-      <c r="G204">
-        <f t="shared" si="11"/>
-        <v>262249</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>44216</v>
       </c>
@@ -6244,19 +4610,11 @@
         <v>264831</v>
       </c>
       <c r="E205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>76899</v>
       </c>
-      <c r="F205">
-        <f t="shared" si="10"/>
-        <v>126129950</v>
-      </c>
-      <c r="G205">
-        <f t="shared" si="11"/>
-        <v>269609</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>44217</v>
       </c>
@@ -6270,19 +4628,11 @@
         <v>273031</v>
       </c>
       <c r="E206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>74226</v>
       </c>
-      <c r="F206">
-        <f t="shared" si="10"/>
-        <v>126124329</v>
-      </c>
-      <c r="G206">
-        <f t="shared" si="11"/>
-        <v>277903</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>44218</v>
       </c>
@@ -6296,19 +4646,11 @@
         <v>279058</v>
       </c>
       <c r="E207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>73136</v>
       </c>
-      <c r="F207">
-        <f t="shared" si="10"/>
-        <v>126119284</v>
-      </c>
-      <c r="G207">
-        <f t="shared" si="11"/>
-        <v>284038</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>44219</v>
       </c>
@@ -6322,19 +4664,11 @@
         <v>285366</v>
       </c>
       <c r="E208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>71499</v>
       </c>
-      <c r="F208">
-        <f t="shared" si="10"/>
-        <v>126114530</v>
-      </c>
-      <c r="G208">
-        <f t="shared" si="11"/>
-        <v>290429</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>44220</v>
       </c>
@@ -6348,19 +4682,11 @@
         <v>290386</v>
       </c>
       <c r="E209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>70394</v>
       </c>
-      <c r="F209">
-        <f t="shared" si="10"/>
-        <v>126110559</v>
-      </c>
-      <c r="G209">
-        <f t="shared" si="11"/>
-        <v>295505</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>44221</v>
       </c>
@@ -6374,19 +4700,11 @@
         <v>290386</v>
       </c>
       <c r="E210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>73105</v>
       </c>
-      <c r="F210">
-        <f t="shared" si="10"/>
-        <v>126107774</v>
-      </c>
-      <c r="G210">
-        <f t="shared" si="11"/>
-        <v>295579</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>44222</v>
       </c>
@@ -6400,19 +4718,11 @@
         <v>301384</v>
       </c>
       <c r="E211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>65864</v>
       </c>
-      <c r="F211">
-        <f t="shared" si="10"/>
-        <v>126103913</v>
-      </c>
-      <c r="G211">
-        <f t="shared" si="11"/>
-        <v>306681</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>44223</v>
       </c>
@@ -6426,19 +4736,11 @@
         <v>308008</v>
       </c>
       <c r="E212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>63087</v>
       </c>
-      <c r="F212">
-        <f t="shared" si="10"/>
-        <v>126099976</v>
-      </c>
-      <c r="G212">
-        <f t="shared" si="11"/>
-        <v>313395</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>44224</v>
       </c>
@@ -6452,19 +4754,11 @@
         <v>314278</v>
       </c>
       <c r="E213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>60866</v>
       </c>
-      <c r="F213">
-        <f t="shared" si="10"/>
-        <v>126095814</v>
-      </c>
-      <c r="G213">
-        <f t="shared" si="11"/>
-        <v>319778</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>44225</v>
       </c>
@@ -6478,19 +4772,11 @@
         <v>320092</v>
       </c>
       <c r="E214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>58491</v>
       </c>
-      <c r="F214">
-        <f t="shared" si="10"/>
-        <v>126092278</v>
-      </c>
-      <c r="G214">
-        <f t="shared" si="11"/>
-        <v>325689</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>44226</v>
       </c>
@@ -6504,19 +4790,11 @@
         <v>325436</v>
       </c>
       <c r="E215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>56375</v>
       </c>
-      <c r="F215">
-        <f t="shared" si="10"/>
-        <v>126088959</v>
-      </c>
-      <c r="G215">
-        <f t="shared" si="11"/>
-        <v>331124</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>44227</v>
       </c>
@@ -6530,19 +4808,11 @@
         <v>325436</v>
       </c>
       <c r="E216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>58977</v>
       </c>
-      <c r="F216">
-        <f t="shared" si="10"/>
-        <v>126086292</v>
-      </c>
-      <c r="G216">
-        <f t="shared" si="11"/>
-        <v>331189</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>44228</v>
       </c>
@@ -6556,19 +4826,11 @@
         <v>333969</v>
       </c>
       <c r="E217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>52154</v>
       </c>
-      <c r="F217">
-        <f t="shared" si="10"/>
-        <v>126084502</v>
-      </c>
-      <c r="G217">
-        <f t="shared" si="11"/>
-        <v>339802</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>44229</v>
       </c>
@@ -6582,19 +4844,11 @@
         <v>339221</v>
       </c>
       <c r="E218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>49096</v>
       </c>
-      <c r="F218">
-        <f t="shared" si="10"/>
-        <v>126082189</v>
-      </c>
-      <c r="G218">
-        <f t="shared" si="11"/>
-        <v>345173</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>44230</v>
       </c>
@@ -6608,19 +4862,11 @@
         <v>343981</v>
       </c>
       <c r="E219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>46851</v>
       </c>
-      <c r="F219">
-        <f t="shared" si="10"/>
-        <v>126079558</v>
-      </c>
-      <c r="G219">
-        <f t="shared" si="11"/>
-        <v>350049</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>44231</v>
       </c>
@@ -6634,19 +4880,11 @@
         <v>349176</v>
       </c>
       <c r="E220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>44144</v>
       </c>
-      <c r="F220">
-        <f t="shared" si="10"/>
-        <v>126076966</v>
-      </c>
-      <c r="G220">
-        <f t="shared" si="11"/>
-        <v>355348</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>44232</v>
       </c>
@@ -6660,19 +4898,11 @@
         <v>354317</v>
       </c>
       <c r="E221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>41263</v>
       </c>
-      <c r="F221">
-        <f t="shared" si="10"/>
-        <v>126074600</v>
-      </c>
-      <c r="G221">
-        <f t="shared" si="11"/>
-        <v>360595</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>44233</v>
       </c>
@@ -6686,19 +4916,11 @@
         <v>358716</v>
       </c>
       <c r="E222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>39040</v>
       </c>
-      <c r="F222">
-        <f t="shared" si="10"/>
-        <v>126072330</v>
-      </c>
-      <c r="G222">
-        <f t="shared" si="11"/>
-        <v>365088</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>44234</v>
       </c>
@@ -6712,19 +4934,11 @@
         <v>362075</v>
       </c>
       <c r="E223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>37266</v>
       </c>
-      <c r="F223">
-        <f t="shared" si="10"/>
-        <v>126070693</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="11"/>
-        <v>368499</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>44235</v>
       </c>
@@ -6738,19 +4952,11 @@
         <v>365082</v>
       </c>
       <c r="E224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>35403</v>
       </c>
-      <c r="F224">
-        <f t="shared" si="10"/>
-        <v>126069466</v>
-      </c>
-      <c r="G224">
-        <f t="shared" si="11"/>
-        <v>371589</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>44236</v>
       </c>
@@ -6764,19 +4970,11 @@
         <v>368657</v>
       </c>
       <c r="E225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>33291</v>
       </c>
-      <c r="F225">
-        <f t="shared" si="10"/>
-        <v>126067908</v>
-      </c>
-      <c r="G225">
-        <f t="shared" si="11"/>
-        <v>375259</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>44237</v>
       </c>
@@ -6790,19 +4988,11 @@
         <v>372379</v>
       </c>
       <c r="E226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>31332</v>
       </c>
-      <c r="F226">
-        <f t="shared" si="10"/>
-        <v>126066024</v>
-      </c>
-      <c r="G226">
-        <f t="shared" si="11"/>
-        <v>379102</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>44238</v>
       </c>
@@ -6816,19 +5006,11 @@
         <v>375298</v>
       </c>
       <c r="E227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>30027</v>
       </c>
-      <c r="F227">
-        <f t="shared" si="10"/>
-        <v>126064333</v>
-      </c>
-      <c r="G227">
-        <f t="shared" si="11"/>
-        <v>382098</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>44239</v>
       </c>
@@ -6842,19 +5024,11 @@
         <v>377868</v>
       </c>
       <c r="E228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>28710</v>
       </c>
-      <c r="F228">
-        <f t="shared" si="10"/>
-        <v>126063017</v>
-      </c>
-      <c r="G228">
-        <f t="shared" si="11"/>
-        <v>384731</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>44240</v>
       </c>
@@ -6868,19 +5042,11 @@
         <v>380413</v>
       </c>
       <c r="E229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>27462</v>
       </c>
-      <c r="F229">
-        <f t="shared" si="10"/>
-        <v>126061655</v>
-      </c>
-      <c r="G229">
-        <f t="shared" si="11"/>
-        <v>387341</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>44241</v>
       </c>
@@ -6894,19 +5060,11 @@
         <v>382730</v>
       </c>
       <c r="E230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>26458</v>
       </c>
-      <c r="F230">
-        <f t="shared" si="10"/>
-        <v>126060304</v>
-      </c>
-      <c r="G230">
-        <f t="shared" si="11"/>
-        <v>389696</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>44242</v>
       </c>
@@ -6920,19 +5078,11 @@
         <v>384941</v>
       </c>
       <c r="E231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>25148</v>
       </c>
-      <c r="F231">
-        <f t="shared" si="10"/>
-        <v>126059331</v>
-      </c>
-      <c r="G231">
-        <f t="shared" si="11"/>
-        <v>391979</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>44243</v>
       </c>
@@ -6946,19 +5096,11 @@
         <v>387584</v>
       </c>
       <c r="E232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>23712</v>
       </c>
-      <c r="F232">
-        <f t="shared" si="10"/>
-        <v>126058023</v>
-      </c>
-      <c r="G232">
-        <f t="shared" si="11"/>
-        <v>394723</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>44244</v>
       </c>
@@ -6972,19 +5114,11 @@
         <v>391052</v>
       </c>
       <c r="E233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>21626</v>
       </c>
-      <c r="F233">
-        <f t="shared" si="10"/>
-        <v>126056562</v>
-      </c>
-      <c r="G233">
-        <f t="shared" si="11"/>
-        <v>398270</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>44245</v>
       </c>
@@ -6998,19 +5132,11 @@
         <v>393338</v>
       </c>
       <c r="E234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>20789</v>
       </c>
-      <c r="F234">
-        <f t="shared" si="10"/>
-        <v>126055037</v>
-      </c>
-      <c r="G234">
-        <f t="shared" si="11"/>
-        <v>400632</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>44246</v>
       </c>
@@ -7024,19 +5150,11 @@
         <v>395336</v>
       </c>
       <c r="E235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>20022</v>
       </c>
-      <c r="F235">
-        <f t="shared" si="10"/>
-        <v>126053740</v>
-      </c>
-      <c r="G235">
-        <f t="shared" si="11"/>
-        <v>402696</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>44247</v>
       </c>
@@ -7050,19 +5168,11 @@
         <v>397137</v>
       </c>
       <c r="E236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>19377</v>
       </c>
-      <c r="F236">
-        <f t="shared" si="10"/>
-        <v>126052506</v>
-      </c>
-      <c r="G236">
-        <f t="shared" si="11"/>
-        <v>404575</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>44248</v>
       </c>
@@ -7076,19 +5186,11 @@
         <v>398765</v>
       </c>
       <c r="E237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>18738</v>
       </c>
-      <c r="F237">
-        <f t="shared" si="10"/>
-        <v>126051470</v>
-      </c>
-      <c r="G237">
-        <f t="shared" si="11"/>
-        <v>406250</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>44249</v>
       </c>
@@ -7102,19 +5204,11 @@
         <v>400094</v>
       </c>
       <c r="E238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>18090</v>
       </c>
-      <c r="F238">
-        <f t="shared" si="10"/>
-        <v>126050733</v>
-      </c>
-      <c r="G238">
-        <f t="shared" si="11"/>
-        <v>407635</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>44250</v>
       </c>
@@ -7128,19 +5222,11 @@
         <v>401653</v>
       </c>
       <c r="E239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>17580</v>
       </c>
-      <c r="F239">
-        <f t="shared" si="10"/>
-        <v>126049630</v>
-      </c>
-      <c r="G239">
-        <f t="shared" si="11"/>
-        <v>409248</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>44251</v>
       </c>
@@ -7154,19 +5240,11 @@
         <v>403225</v>
       </c>
       <c r="E240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>16843</v>
       </c>
-      <c r="F240">
-        <f t="shared" si="10"/>
-        <v>126048726</v>
-      </c>
-      <c r="G240">
-        <f t="shared" si="11"/>
-        <v>410889</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>44252</v>
       </c>
@@ -7180,19 +5258,11 @@
         <v>405101</v>
       </c>
       <c r="E241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>15977</v>
       </c>
-      <c r="F241">
-        <f t="shared" si="10"/>
-        <v>126047642</v>
-      </c>
-      <c r="G241">
-        <f t="shared" si="11"/>
-        <v>412839</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>44253</v>
       </c>
@@ -7206,19 +5276,11 @@
         <v>406428</v>
       </c>
       <c r="E242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>15627</v>
       </c>
-      <c r="F242">
-        <f t="shared" si="10"/>
-        <v>126046585</v>
-      </c>
-      <c r="G242">
-        <f t="shared" si="11"/>
-        <v>414246</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>44254</v>
       </c>
@@ -7232,19 +5294,11 @@
         <v>407864</v>
       </c>
       <c r="E243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>15370</v>
       </c>
-      <c r="F243">
-        <f t="shared" si="10"/>
-        <v>126045365</v>
-      </c>
-      <c r="G243">
-        <f t="shared" si="11"/>
-        <v>415723</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>44255</v>
       </c>
@@ -7258,19 +5312,11 @@
         <v>409163</v>
       </c>
       <c r="E244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>15038</v>
       </c>
-      <c r="F244">
-        <f t="shared" si="10"/>
-        <v>126044368</v>
-      </c>
-      <c r="G244">
-        <f t="shared" si="11"/>
-        <v>417052</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>44256</v>
       </c>
@@ -7284,19 +5330,11 @@
         <v>410448</v>
       </c>
       <c r="E245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>14390</v>
       </c>
-      <c r="F245">
-        <f t="shared" si="10"/>
-        <v>126043680</v>
-      </c>
-      <c r="G245">
-        <f t="shared" si="11"/>
-        <v>418388</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>44257</v>
       </c>
@@ -7310,19 +5348,11 @@
         <v>411959</v>
       </c>
       <c r="E246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>13736</v>
       </c>
-      <c r="F246">
-        <f t="shared" si="10"/>
-        <v>126042758</v>
-      </c>
-      <c r="G246">
-        <f t="shared" si="11"/>
-        <v>419964</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>44258</v>
       </c>
@@ -7336,19 +5366,11 @@
         <v>413178</v>
       </c>
       <c r="E247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>13698</v>
       </c>
-      <c r="F247">
-        <f t="shared" si="10"/>
-        <v>126041514</v>
-      </c>
-      <c r="G247">
-        <f t="shared" si="11"/>
-        <v>421246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>44259</v>
       </c>
@@ -7362,19 +5384,11 @@
         <v>413178</v>
       </c>
       <c r="E248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>14780</v>
       </c>
-      <c r="F248">
-        <f t="shared" si="10"/>
-        <v>126040365</v>
-      </c>
-      <c r="G248">
-        <f t="shared" si="11"/>
-        <v>421313</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>44260</v>
       </c>
@@ -7388,19 +5402,11 @@
         <v>415868</v>
       </c>
       <c r="E249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>13164</v>
       </c>
-      <c r="F249">
-        <f t="shared" si="10"/>
-        <v>126039236</v>
-      </c>
-      <c r="G249">
-        <f t="shared" si="11"/>
-        <v>424058</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>44261</v>
       </c>
@@ -7414,19 +5420,11 @@
         <v>417136</v>
       </c>
       <c r="E250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>12302</v>
       </c>
-      <c r="F250">
-        <f t="shared" si="10"/>
-        <v>126038824</v>
-      </c>
-      <c r="G250">
-        <f t="shared" si="11"/>
-        <v>425332</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>44262</v>
       </c>
@@ -7440,19 +5438,11 @@
         <v>418105</v>
       </c>
       <c r="E251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>12996</v>
       </c>
-      <c r="F251">
-        <f t="shared" si="10"/>
-        <v>126037102</v>
-      </c>
-      <c r="G251">
-        <f t="shared" si="11"/>
-        <v>426360</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>44263</v>
       </c>
@@ -7466,19 +5456,11 @@
         <v>418105</v>
       </c>
       <c r="E252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>13571</v>
       </c>
-      <c r="F252">
-        <f t="shared" si="10"/>
-        <v>126036481</v>
-      </c>
-      <c r="G252">
-        <f t="shared" si="11"/>
-        <v>426406</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>44264</v>
       </c>
@@ -7492,19 +5474,11 @@
         <v>420104</v>
       </c>
       <c r="E253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>12689</v>
       </c>
-      <c r="F253">
-        <f t="shared" si="10"/>
-        <v>126035306</v>
-      </c>
-      <c r="G253">
-        <f t="shared" si="11"/>
-        <v>428463</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>44265</v>
       </c>
@@ -7518,19 +5492,11 @@
         <v>421265</v>
       </c>
       <c r="E254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>12734</v>
       </c>
-      <c r="F254">
-        <f t="shared" si="10"/>
-        <v>126034047</v>
-      </c>
-      <c r="G254">
-        <f t="shared" si="11"/>
-        <v>429677</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>44266</v>
       </c>
@@ -7544,19 +5510,11 @@
         <v>422386</v>
       </c>
       <c r="E255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>12871</v>
       </c>
-      <c r="F255">
-        <f t="shared" si="10"/>
-        <v>126032744</v>
-      </c>
-      <c r="G255">
-        <f t="shared" si="11"/>
-        <v>430843</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>44267</v>
       </c>
@@ -7570,19 +5528,11 @@
         <v>423463</v>
       </c>
       <c r="E256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>12999</v>
       </c>
-      <c r="F256">
-        <f t="shared" si="10"/>
-        <v>126031481</v>
-      </c>
-      <c r="G256">
-        <f t="shared" si="11"/>
-        <v>431978</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>44268</v>
       </c>
@@ -7596,19 +5546,11 @@
         <v>424529</v>
       </c>
       <c r="E257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>13217</v>
       </c>
-      <c r="F257">
-        <f t="shared" si="10"/>
-        <v>126030146</v>
-      </c>
-      <c r="G257">
-        <f t="shared" si="11"/>
-        <v>433095</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>44269</v>
       </c>
@@ -7622,19 +5564,11 @@
         <v>425507</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="12">B258-C258-D258</f>
+        <f t="shared" ref="E258:E321" si="4">B258-C258-D258</f>
         <v>13193</v>
       </c>
-      <c r="F258">
-        <f t="shared" si="10"/>
-        <v>126029171</v>
-      </c>
-      <c r="G258">
-        <f t="shared" si="11"/>
-        <v>434094</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>44270</v>
       </c>
@@ -7648,19 +5582,11 @@
         <v>425507</v>
       </c>
       <c r="E259">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>13868</v>
       </c>
-      <c r="F259">
-        <f t="shared" ref="F259:F322" si="13">126476458 -E259-D259-C259</f>
-        <v>126028458</v>
-      </c>
-      <c r="G259">
-        <f t="shared" ref="G259:G322" si="14">D259+C259</f>
-        <v>434132</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>44271</v>
       </c>
@@ -7674,19 +5600,11 @@
         <v>427426</v>
       </c>
       <c r="E260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>13034</v>
       </c>
-      <c r="F260">
-        <f t="shared" si="13"/>
-        <v>126027316</v>
-      </c>
-      <c r="G260">
-        <f t="shared" si="14"/>
-        <v>436108</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>44272</v>
       </c>
@@ -7700,19 +5618,11 @@
         <v>428627</v>
       </c>
       <c r="E261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>13342</v>
       </c>
-      <c r="F261">
-        <f t="shared" si="13"/>
-        <v>126025771</v>
-      </c>
-      <c r="G261">
-        <f t="shared" si="14"/>
-        <v>437345</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>44273</v>
       </c>
@@ -7726,19 +5636,11 @@
         <v>429742</v>
       </c>
       <c r="E262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>13655</v>
       </c>
-      <c r="F262">
-        <f t="shared" si="13"/>
-        <v>126024311</v>
-      </c>
-      <c r="G262">
-        <f t="shared" si="14"/>
-        <v>438492</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>44274</v>
       </c>
@@ -7752,19 +5654,11 @@
         <v>430771</v>
       </c>
       <c r="E263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>14062</v>
       </c>
-      <c r="F263">
-        <f t="shared" si="13"/>
-        <v>126022842</v>
-      </c>
-      <c r="G263">
-        <f t="shared" si="14"/>
-        <v>439554</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>44275</v>
       </c>
@@ -7778,19 +5672,11 @@
         <v>431972</v>
       </c>
       <c r="E264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>14438</v>
       </c>
-      <c r="F264">
-        <f t="shared" si="13"/>
-        <v>126021246</v>
-      </c>
-      <c r="G264">
-        <f t="shared" si="14"/>
-        <v>440774</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>44276</v>
       </c>
@@ -7804,19 +5690,11 @@
         <v>431972</v>
       </c>
       <c r="E265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>15525</v>
       </c>
-      <c r="F265">
-        <f t="shared" si="13"/>
-        <v>126020140</v>
-      </c>
-      <c r="G265">
-        <f t="shared" si="14"/>
-        <v>440793</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>44277</v>
       </c>
@@ -7830,19 +5708,11 @@
         <v>434118</v>
       </c>
       <c r="E266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>14129</v>
       </c>
-      <c r="F266">
-        <f t="shared" si="13"/>
-        <v>126019354</v>
-      </c>
-      <c r="G266">
-        <f t="shared" si="14"/>
-        <v>442975</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>44278</v>
       </c>
@@ -7856,19 +5726,11 @@
         <v>435205</v>
       </c>
       <c r="E267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>14508</v>
       </c>
-      <c r="F267">
-        <f t="shared" si="13"/>
-        <v>126017837</v>
-      </c>
-      <c r="G267">
-        <f t="shared" si="14"/>
-        <v>444113</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>44279</v>
       </c>
@@ -7882,19 +5744,11 @@
         <v>436307</v>
       </c>
       <c r="E268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>15359</v>
       </c>
-      <c r="F268">
-        <f t="shared" si="13"/>
-        <v>126015863</v>
-      </c>
-      <c r="G268">
-        <f t="shared" si="14"/>
-        <v>445236</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>44280</v>
       </c>
@@ -7908,19 +5762,11 @@
         <v>437546</v>
       </c>
       <c r="E269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>16004</v>
       </c>
-      <c r="F269">
-        <f t="shared" si="13"/>
-        <v>126013952</v>
-      </c>
-      <c r="G269">
-        <f t="shared" si="14"/>
-        <v>446502</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>44281</v>
       </c>
@@ -7934,19 +5780,11 @@
         <v>438723</v>
       </c>
       <c r="E270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>16771</v>
       </c>
-      <c r="F270">
-        <f t="shared" si="13"/>
-        <v>126011975</v>
-      </c>
-      <c r="G270">
-        <f t="shared" si="14"/>
-        <v>447712</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>44282</v>
       </c>
@@ -7960,19 +5798,11 @@
         <v>438723</v>
       </c>
       <c r="E271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>18819</v>
       </c>
-      <c r="F271">
-        <f t="shared" si="13"/>
-        <v>126009895</v>
-      </c>
-      <c r="G271">
-        <f t="shared" si="14"/>
-        <v>447744</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>44283</v>
       </c>
@@ -7986,19 +5816,11 @@
         <v>438723</v>
       </c>
       <c r="E272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>20573</v>
       </c>
-      <c r="F272">
-        <f t="shared" si="13"/>
-        <v>126008112</v>
-      </c>
-      <c r="G272">
-        <f t="shared" si="14"/>
-        <v>447773</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>44284</v>
       </c>
@@ -8012,19 +5834,11 @@
         <v>442213</v>
       </c>
       <c r="E273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>18344</v>
       </c>
-      <c r="F273">
-        <f t="shared" si="13"/>
-        <v>126006822</v>
-      </c>
-      <c r="G273">
-        <f t="shared" si="14"/>
-        <v>451292</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>44285</v>
       </c>
@@ -8038,19 +5852,11 @@
         <v>443484</v>
       </c>
       <c r="E274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>19181</v>
       </c>
-      <c r="F274">
-        <f t="shared" si="13"/>
-        <v>126004681</v>
-      </c>
-      <c r="G274">
-        <f t="shared" si="14"/>
-        <v>452596</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>44286</v>
       </c>
@@ -8064,19 +5870,11 @@
         <v>444868</v>
       </c>
       <c r="E275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>20618</v>
       </c>
-      <c r="F275">
-        <f t="shared" si="13"/>
-        <v>126001817</v>
-      </c>
-      <c r="G275">
-        <f t="shared" si="14"/>
-        <v>454023</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>44287</v>
       </c>
@@ -8090,19 +5888,11 @@
         <v>446260</v>
       </c>
       <c r="E276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>21806</v>
       </c>
-      <c r="F276">
-        <f t="shared" si="13"/>
-        <v>125999219</v>
-      </c>
-      <c r="G276">
-        <f t="shared" si="14"/>
-        <v>455433</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>44288</v>
       </c>
@@ -8116,19 +5906,11 @@
         <v>447559</v>
       </c>
       <c r="E277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>23203</v>
       </c>
-      <c r="F277">
-        <f t="shared" si="13"/>
-        <v>125996505</v>
-      </c>
-      <c r="G277">
-        <f t="shared" si="14"/>
-        <v>456750</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>44289</v>
       </c>
@@ -8142,19 +5924,11 @@
         <v>448935</v>
       </c>
       <c r="E278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>24571</v>
       </c>
-      <c r="F278">
-        <f t="shared" si="13"/>
-        <v>125993754</v>
-      </c>
-      <c r="G278">
-        <f t="shared" si="14"/>
-        <v>458133</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>44290</v>
       </c>
@@ -8168,19 +5942,11 @@
         <v>450468</v>
       </c>
       <c r="E279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>25548</v>
       </c>
-      <c r="F279">
-        <f t="shared" si="13"/>
-        <v>125991232</v>
-      </c>
-      <c r="G279">
-        <f t="shared" si="14"/>
-        <v>459678</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>44291</v>
       </c>
@@ -8194,19 +5960,11 @@
         <v>451999</v>
       </c>
       <c r="E280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>25564</v>
       </c>
-      <c r="F280">
-        <f t="shared" si="13"/>
-        <v>125989666</v>
-      </c>
-      <c r="G280">
-        <f t="shared" si="14"/>
-        <v>461228</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>44292</v>
       </c>
@@ -8220,19 +5978,11 @@
         <v>453899</v>
       </c>
       <c r="E281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>26257</v>
       </c>
-      <c r="F281">
-        <f t="shared" si="13"/>
-        <v>125987051</v>
-      </c>
-      <c r="G281">
-        <f t="shared" si="14"/>
-        <v>463150</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>44293</v>
       </c>
@@ -8246,19 +5996,11 @@
         <v>455226</v>
       </c>
       <c r="E282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>28348</v>
       </c>
-      <c r="F282">
-        <f t="shared" si="13"/>
-        <v>125983598</v>
-      </c>
-      <c r="G282">
-        <f t="shared" si="14"/>
-        <v>464512</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>44294</v>
       </c>
@@ -8272,19 +6014,11 @@
         <v>456894</v>
       </c>
       <c r="E283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>30146</v>
       </c>
-      <c r="F283">
-        <f t="shared" si="13"/>
-        <v>125980107</v>
-      </c>
-      <c r="G283">
-        <f t="shared" si="14"/>
-        <v>466205</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>44295</v>
       </c>
@@ -8298,19 +6032,11 @@
         <v>458684</v>
       </c>
       <c r="E284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>31822</v>
       </c>
-      <c r="F284">
-        <f t="shared" si="13"/>
-        <v>125976627</v>
-      </c>
-      <c r="G284">
-        <f t="shared" si="14"/>
-        <v>468009</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>44296</v>
       </c>
@@ -8324,19 +6050,11 @@
         <v>458684</v>
       </c>
       <c r="E285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>35501</v>
       </c>
-      <c r="F285">
-        <f t="shared" si="13"/>
-        <v>125972921</v>
-      </c>
-      <c r="G285">
-        <f t="shared" si="14"/>
-        <v>468036</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>44297</v>
       </c>
@@ -8350,19 +6068,11 @@
         <v>463569</v>
       </c>
       <c r="E286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>33299</v>
       </c>
-      <c r="F286">
-        <f t="shared" si="13"/>
-        <v>125970221</v>
-      </c>
-      <c r="G286">
-        <f t="shared" si="14"/>
-        <v>472938</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>44298</v>
       </c>
@@ -8376,19 +6086,11 @@
         <v>465760</v>
       </c>
       <c r="E287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>33197</v>
       </c>
-      <c r="F287">
-        <f t="shared" si="13"/>
-        <v>125968108</v>
-      </c>
-      <c r="G287">
-        <f t="shared" si="14"/>
-        <v>475153</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>44299</v>
       </c>
@@ -8402,19 +6104,11 @@
         <v>468614</v>
       </c>
       <c r="E288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>33763</v>
       </c>
-      <c r="F288">
-        <f t="shared" si="13"/>
-        <v>125964659</v>
-      </c>
-      <c r="G288">
-        <f t="shared" si="14"/>
-        <v>478036</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>44300</v>
       </c>
@@ -8428,19 +6122,11 @@
         <v>470851</v>
       </c>
       <c r="E289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>36959</v>
       </c>
-      <c r="F289">
-        <f t="shared" si="13"/>
-        <v>125959177</v>
-      </c>
-      <c r="G289">
-        <f t="shared" si="14"/>
-        <v>480322</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>44301</v>
       </c>
@@ -8454,19 +6140,11 @@
         <v>473414</v>
       </c>
       <c r="E290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>38876</v>
       </c>
-      <c r="F290">
-        <f t="shared" si="13"/>
-        <v>125954662</v>
-      </c>
-      <c r="G290">
-        <f t="shared" si="14"/>
-        <v>482920</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>44302</v>
       </c>
@@ -8480,19 +6158,11 @@
         <v>475598</v>
       </c>
       <c r="E291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>41157</v>
       </c>
-      <c r="F291">
-        <f t="shared" si="13"/>
-        <v>125950151</v>
-      </c>
-      <c r="G291">
-        <f t="shared" si="14"/>
-        <v>485150</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>44303</v>
       </c>
@@ -8506,19 +6176,11 @@
         <v>478222</v>
       </c>
       <c r="E292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>43294</v>
       </c>
-      <c r="F292">
-        <f t="shared" si="13"/>
-        <v>125945349</v>
-      </c>
-      <c r="G292">
-        <f t="shared" si="14"/>
-        <v>487815</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>44304</v>
       </c>
@@ -8532,19 +6194,11 @@
         <v>480637</v>
       </c>
       <c r="E293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>44973</v>
       </c>
-      <c r="F293">
-        <f t="shared" si="13"/>
-        <v>125941238</v>
-      </c>
-      <c r="G293">
-        <f t="shared" si="14"/>
-        <v>490247</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>44305</v>
       </c>
@@ -8558,19 +6212,11 @@
         <v>482896</v>
       </c>
       <c r="E294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>44969</v>
       </c>
-      <c r="F294">
-        <f t="shared" si="13"/>
-        <v>125938964</v>
-      </c>
-      <c r="G294">
-        <f t="shared" si="14"/>
-        <v>492525</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>44306</v>
       </c>
@@ -8584,19 +6230,11 @@
         <v>485920</v>
       </c>
       <c r="E295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>46865</v>
       </c>
-      <c r="F295">
-        <f t="shared" si="13"/>
-        <v>125933991</v>
-      </c>
-      <c r="G295">
-        <f t="shared" si="14"/>
-        <v>495602</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>44307</v>
       </c>
@@ -8610,19 +6248,11 @@
         <v>488788</v>
       </c>
       <c r="E296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>49311</v>
       </c>
-      <c r="F296">
-        <f t="shared" si="13"/>
-        <v>125928622</v>
-      </c>
-      <c r="G296">
-        <f t="shared" si="14"/>
-        <v>498525</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>44308</v>
       </c>
@@ -8636,19 +6266,11 @@
         <v>491505</v>
       </c>
       <c r="E297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>52079</v>
       </c>
-      <c r="F297">
-        <f t="shared" si="13"/>
-        <v>125923096</v>
-      </c>
-      <c r="G297">
-        <f t="shared" si="14"/>
-        <v>501283</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>44309</v>
       </c>
@@ -8662,19 +6284,11 @@
         <v>494726</v>
       </c>
       <c r="E298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>53816</v>
       </c>
-      <c r="F298">
-        <f t="shared" si="13"/>
-        <v>125918082</v>
-      </c>
-      <c r="G298">
-        <f t="shared" si="14"/>
-        <v>504560</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>44310</v>
       </c>
@@ -8688,19 +6302,11 @@
         <v>498086</v>
       </c>
       <c r="E299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>56022</v>
       </c>
-      <c r="F299">
-        <f t="shared" si="13"/>
-        <v>125912460</v>
-      </c>
-      <c r="G299">
-        <f t="shared" si="14"/>
-        <v>507976</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>44311</v>
       </c>
@@ -8714,19 +6320,11 @@
         <v>501453</v>
       </c>
       <c r="E300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>57229</v>
       </c>
-      <c r="F300">
-        <f t="shared" si="13"/>
-        <v>125907837</v>
-      </c>
-      <c r="G300">
-        <f t="shared" si="14"/>
-        <v>511392</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>44312</v>
       </c>
@@ -8740,19 +6338,11 @@
         <v>504582</v>
       </c>
       <c r="E301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>57354</v>
       </c>
-      <c r="F301">
-        <f t="shared" si="13"/>
-        <v>125904554</v>
-      </c>
-      <c r="G301">
-        <f t="shared" si="14"/>
-        <v>514550</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>44313</v>
       </c>
@@ -8766,19 +6356,11 @@
         <v>508232</v>
       </c>
       <c r="E302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>58607</v>
       </c>
-      <c r="F302">
-        <f t="shared" si="13"/>
-        <v>125899588</v>
-      </c>
-      <c r="G302">
-        <f t="shared" si="14"/>
-        <v>518263</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>44314</v>
       </c>
@@ -8792,19 +6374,11 @@
         <v>508262</v>
       </c>
       <c r="E303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>62352</v>
       </c>
-      <c r="F303">
-        <f t="shared" si="13"/>
-        <v>125895792</v>
-      </c>
-      <c r="G303">
-        <f t="shared" si="14"/>
-        <v>518314</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>44315</v>
       </c>
@@ -8818,19 +6392,11 @@
         <v>515404</v>
       </c>
       <c r="E304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>63016</v>
       </c>
-      <c r="F304">
-        <f t="shared" si="13"/>
-        <v>125887878</v>
-      </c>
-      <c r="G304">
-        <f t="shared" si="14"/>
-        <v>525564</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>44316</v>
       </c>
@@ -8844,19 +6410,11 @@
         <v>518891</v>
       </c>
       <c r="E305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>64174</v>
       </c>
-      <c r="F305">
-        <f t="shared" si="13"/>
-        <v>125883194</v>
-      </c>
-      <c r="G305">
-        <f t="shared" si="14"/>
-        <v>529090</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>44317</v>
       </c>
@@ -8870,19 +6428,11 @@
         <v>523071</v>
       </c>
       <c r="E306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>65901</v>
       </c>
-      <c r="F306">
-        <f t="shared" si="13"/>
-        <v>125877205</v>
-      </c>
-      <c r="G306">
-        <f t="shared" si="14"/>
-        <v>533352</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>44318</v>
       </c>
@@ -8896,19 +6446,11 @@
         <v>527077</v>
       </c>
       <c r="E307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>67731</v>
       </c>
-      <c r="F307">
-        <f t="shared" si="13"/>
-        <v>125871308</v>
-      </c>
-      <c r="G307">
-        <f t="shared" si="14"/>
-        <v>537419</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>44319</v>
       </c>
@@ -8922,19 +6464,11 @@
         <v>530913</v>
       </c>
       <c r="E308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>68321</v>
       </c>
-      <c r="F308">
-        <f t="shared" si="13"/>
-        <v>125866833</v>
-      </c>
-      <c r="G308">
-        <f t="shared" si="14"/>
-        <v>541304</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>44320</v>
       </c>
@@ -8948,19 +6482,11 @@
         <v>534680</v>
       </c>
       <c r="E309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>68701</v>
       </c>
-      <c r="F309">
-        <f t="shared" si="13"/>
-        <v>125862636</v>
-      </c>
-      <c r="G309">
-        <f t="shared" si="14"/>
-        <v>545121</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>44321</v>
       </c>
@@ -8974,19 +6500,11 @@
         <v>538790</v>
       </c>
       <c r="E310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>68599</v>
       </c>
-      <c r="F310">
-        <f t="shared" si="13"/>
-        <v>125858568</v>
-      </c>
-      <c r="G310">
-        <f t="shared" si="14"/>
-        <v>549291</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>44322</v>
       </c>
@@ -9000,19 +6518,11 @@
         <v>542413</v>
       </c>
       <c r="E311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>69294</v>
       </c>
-      <c r="F311">
-        <f t="shared" si="13"/>
-        <v>125854185</v>
-      </c>
-      <c r="G311">
-        <f t="shared" si="14"/>
-        <v>552979</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>44323</v>
       </c>
@@ -9026,19 +6536,11 @@
         <v>545886</v>
       </c>
       <c r="E312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>71721</v>
       </c>
-      <c r="F312">
-        <f t="shared" si="13"/>
-        <v>125848139</v>
-      </c>
-      <c r="G312">
-        <f t="shared" si="14"/>
-        <v>556598</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>44324</v>
       </c>
@@ -9052,19 +6554,11 @@
         <v>551137</v>
       </c>
       <c r="E313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>73635</v>
       </c>
-      <c r="F313">
-        <f t="shared" si="13"/>
-        <v>125840890</v>
-      </c>
-      <c r="G313">
-        <f t="shared" si="14"/>
-        <v>561933</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>44325</v>
       </c>
@@ -9078,19 +6572,11 @@
         <v>555245</v>
       </c>
       <c r="E314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>76041</v>
       </c>
-      <c r="F314">
-        <f t="shared" si="13"/>
-        <v>125834312</v>
-      </c>
-      <c r="G314">
-        <f t="shared" si="14"/>
-        <v>566105</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>44326</v>
       </c>
@@ -9104,19 +6590,11 @@
         <v>559397</v>
       </c>
       <c r="E315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>76675</v>
       </c>
-      <c r="F315">
-        <f t="shared" si="13"/>
-        <v>125829455</v>
-      </c>
-      <c r="G315">
-        <f t="shared" si="14"/>
-        <v>570328</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>44327</v>
       </c>
@@ -9130,19 +6608,11 @@
         <v>563972</v>
       </c>
       <c r="E316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>78346</v>
       </c>
-      <c r="F316">
-        <f t="shared" si="13"/>
-        <v>125823095</v>
-      </c>
-      <c r="G316">
-        <f t="shared" si="14"/>
-        <v>575017</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>44328</v>
       </c>
@@ -9156,19 +6626,11 @@
         <v>568402</v>
       </c>
       <c r="E317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>81334</v>
       </c>
-      <c r="F317">
-        <f t="shared" si="13"/>
-        <v>125815574</v>
-      </c>
-      <c r="G317">
-        <f t="shared" si="14"/>
-        <v>579550</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>44329</v>
       </c>
@@ -9182,19 +6644,11 @@
         <v>573757</v>
       </c>
       <c r="E318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>82245</v>
       </c>
-      <c r="F318">
-        <f t="shared" si="13"/>
-        <v>125809207</v>
-      </c>
-      <c r="G318">
-        <f t="shared" si="14"/>
-        <v>585006</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>44330</v>
       </c>
@@ -9208,19 +6662,11 @@
         <v>579290</v>
       </c>
       <c r="E319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>82919</v>
       </c>
-      <c r="F319">
-        <f t="shared" si="13"/>
-        <v>125802919</v>
-      </c>
-      <c r="G319">
-        <f t="shared" si="14"/>
-        <v>590620</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>44331</v>
       </c>
@@ -9234,19 +6680,11 @@
         <v>584614</v>
       </c>
       <c r="E320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>83832</v>
       </c>
-      <c r="F320">
-        <f t="shared" si="13"/>
-        <v>125796588</v>
-      </c>
-      <c r="G320">
-        <f t="shared" si="14"/>
-        <v>596038</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>44332</v>
       </c>
@@ -9260,19 +6698,11 @@
         <v>589888</v>
       </c>
       <c r="E321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>83776</v>
       </c>
-      <c r="F321">
-        <f t="shared" si="13"/>
-        <v>125791323</v>
-      </c>
-      <c r="G321">
-        <f t="shared" si="14"/>
-        <v>601359</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>44333</v>
       </c>
@@ -9286,19 +6716,11 @@
         <v>595021</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E336" si="15">B322-C322-D322</f>
+        <f t="shared" ref="E322:E336" si="5">B322-C322-D322</f>
         <v>82265</v>
       </c>
-      <c r="F322">
-        <f t="shared" si="13"/>
-        <v>125787585</v>
-      </c>
-      <c r="G322">
-        <f t="shared" si="14"/>
-        <v>606608</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>44334</v>
       </c>
@@ -9312,19 +6734,11 @@
         <v>602200</v>
       </c>
       <c r="E323">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>80074</v>
       </c>
-      <c r="F323">
-        <f t="shared" ref="F323:F335" si="16">126476458 -E323-D323-C323</f>
-        <v>125782381</v>
-      </c>
-      <c r="G323">
-        <f t="shared" ref="G323:G336" si="17">D323+C323</f>
-        <v>614003</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>44335</v>
       </c>
@@ -9338,19 +6752,11 @@
         <v>608930</v>
       </c>
       <c r="E324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>79101</v>
       </c>
-      <c r="F324">
-        <f t="shared" si="16"/>
-        <v>125776527</v>
-      </c>
-      <c r="G324">
-        <f t="shared" si="17"/>
-        <v>620830</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>44336</v>
       </c>
@@ -9364,19 +6770,11 @@
         <v>615168</v>
       </c>
       <c r="E325">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>78467</v>
       </c>
-      <c r="F325">
-        <f t="shared" si="16"/>
-        <v>125770817</v>
-      </c>
-      <c r="G325">
-        <f t="shared" si="17"/>
-        <v>627174</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>44337</v>
       </c>
@@ -9390,19 +6788,11 @@
         <v>621452</v>
       </c>
       <c r="E326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>77324</v>
       </c>
-      <c r="F326">
-        <f t="shared" si="16"/>
-        <v>125765563</v>
-      </c>
-      <c r="G326">
-        <f t="shared" si="17"/>
-        <v>633571</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>44338</v>
       </c>
@@ -9416,19 +6806,11 @@
         <v>628366</v>
       </c>
       <c r="E327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>75311</v>
       </c>
-      <c r="F327">
-        <f t="shared" si="16"/>
-        <v>125760578</v>
-      </c>
-      <c r="G327">
-        <f t="shared" si="17"/>
-        <v>640569</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>44339</v>
       </c>
@@ -9442,19 +6824,11 @@
         <v>633947</v>
       </c>
       <c r="E328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>73713</v>
       </c>
-      <c r="F328">
-        <f t="shared" si="16"/>
-        <v>125756533</v>
-      </c>
-      <c r="G328">
-        <f t="shared" si="17"/>
-        <v>646212</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>44340</v>
       </c>
@@ -9468,19 +6842,11 @@
         <v>639731</v>
       </c>
       <c r="E329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>70586</v>
       </c>
-      <c r="F329">
-        <f t="shared" si="16"/>
-        <v>125753790</v>
-      </c>
-      <c r="G329">
-        <f t="shared" si="17"/>
-        <v>652082</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>44341</v>
       </c>
@@ -9494,19 +6860,11 @@
         <v>645001</v>
       </c>
       <c r="E330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>69128</v>
       </c>
-      <c r="F330">
-        <f t="shared" si="16"/>
-        <v>125749872</v>
-      </c>
-      <c r="G330">
-        <f t="shared" si="17"/>
-        <v>657458</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>44342</v>
       </c>
@@ -9520,19 +6878,11 @@
         <v>649955</v>
       </c>
       <c r="E331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>68543</v>
       </c>
-      <c r="F331">
-        <f t="shared" si="16"/>
-        <v>125745387</v>
-      </c>
-      <c r="G331">
-        <f t="shared" si="17"/>
-        <v>662528</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>44343</v>
       </c>
@@ -9546,19 +6896,11 @@
         <v>655066</v>
       </c>
       <c r="E332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>67477</v>
       </c>
-      <c r="F332">
-        <f t="shared" si="16"/>
-        <v>125741224</v>
-      </c>
-      <c r="G332">
-        <f t="shared" si="17"/>
-        <v>667757</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>44344</v>
       </c>
@@ -9572,19 +6914,11 @@
         <v>659576</v>
       </c>
       <c r="E333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>66573</v>
       </c>
-      <c r="F333">
-        <f t="shared" si="16"/>
-        <v>125737523</v>
-      </c>
-      <c r="G333">
-        <f t="shared" si="17"/>
-        <v>672362</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>44345</v>
       </c>
@@ -9598,19 +6932,11 @@
         <v>666786</v>
       </c>
       <c r="E334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>62876</v>
       </c>
-      <c r="F334">
-        <f t="shared" si="16"/>
-        <v>125733919</v>
-      </c>
-      <c r="G334">
-        <f t="shared" si="17"/>
-        <v>679663</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>44346</v>
       </c>
@@ -9624,19 +6950,11 @@
         <v>671616</v>
       </c>
       <c r="E335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>60850</v>
       </c>
-      <c r="F335">
-        <f t="shared" si="16"/>
-        <v>125731066</v>
-      </c>
-      <c r="G335">
-        <f t="shared" si="17"/>
-        <v>684542</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>44347</v>
       </c>
@@ -9650,16 +6968,8 @@
         <v>675721</v>
       </c>
       <c r="E336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>58461</v>
-      </c>
-      <c r="F336">
-        <f>126476458 -E336-D336-C336</f>
-        <v>125729270</v>
-      </c>
-      <c r="G336">
-        <f t="shared" si="17"/>
-        <v>688727</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Separated datasets/Asian Country ~ Japan.xlsx
+++ b/Datasets/Separated datasets/Asian Country ~ Japan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\Separated datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Visuals\Basic visuals\Datasets of each country and Global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACA103B-1CF8-47C6-B2F4-71137DD3A39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A008391B-0233-43F7-A6C7-C96CF99A9D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5494" yWindow="7886" windowWidth="23983" windowHeight="13594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6017" yWindow="4020" windowWidth="23983" windowHeight="12814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Confirmed</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Infected</t>
+  </si>
+  <si>
+    <t>CFR</t>
+  </si>
+  <si>
+    <t>Mortality rate</t>
+  </si>
+  <si>
+    <t>Recovery rate</t>
   </si>
 </sst>
 </file>
@@ -909,21 +918,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G336"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.53515625" style="1" customWidth="1"/>
     <col min="2" max="4" width="20.53515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.23046875" customWidth="1"/>
-    <col min="7" max="7" width="19.765625" customWidth="1"/>
+    <col min="7" max="7" width="15.3828125" customWidth="1"/>
+    <col min="8" max="8" width="12.23046875" customWidth="1"/>
+    <col min="9" max="9" width="12.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -939,10 +949,18 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>44013</v>
       </c>
@@ -959,8 +977,20 @@
         <f>B2-C2-D2</f>
         <v>1299</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <f>C2/B2*100</f>
+        <v>5.1810170931096717</v>
+      </c>
+      <c r="G2">
+        <f>D2/B2*100</f>
+        <v>87.923346427433913</v>
+      </c>
+      <c r="H2">
+        <f>C2/126476458*100</f>
+        <v>7.7168511471122937E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>44014</v>
       </c>
@@ -977,8 +1007,20 @@
         <f t="shared" ref="E3:E66" si="0">B3-C3-D3</f>
         <v>1463</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">C3/B3*100</f>
+        <v>5.1272631855156128</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="2">D3/B3*100</f>
+        <v>87.194961952243517</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="3">C3/126476458*100</f>
+        <v>7.7247577568941722E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>44015</v>
       </c>
@@ -995,8 +1037,20 @@
         <f t="shared" si="0"/>
         <v>1487</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5.0925201980714094</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>87.156632786030755</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>7.7247577568941722E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>44016</v>
       </c>
@@ -1013,8 +1067,20 @@
         <f t="shared" si="0"/>
         <v>1652</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5.0202970042649406</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>86.49093057910693</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>7.7247577568941722E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>44017</v>
       </c>
@@ -1031,8 +1097,20 @@
         <f t="shared" si="0"/>
         <v>1821</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4.9674598332316453</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>85.773845840959936</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>7.7247577568941722E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>44018</v>
       </c>
@@ -1049,8 +1127,20 @@
         <f t="shared" si="0"/>
         <v>1863</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.9274486094316812</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>85.686215235792019</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>7.7326643666760495E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>44019</v>
       </c>
@@ -1067,8 +1157,20 @@
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.8915482423335828</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>85.0511094490152</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>7.7563841960216816E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>44020</v>
       </c>
@@ -1085,8 +1187,20 @@
         <f t="shared" si="0"/>
         <v>2222</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.8467499136271659</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>84.186367898919102</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>7.76429080580356E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>44021</v>
       </c>
@@ -1103,8 +1217,20 @@
         <f t="shared" si="0"/>
         <v>2223</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.7630596110006307</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>84.454576320512203</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>7.76429080580356E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>44022</v>
       </c>
@@ -1121,8 +1247,20 @@
         <f t="shared" si="0"/>
         <v>2568</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.6664132294240632</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>83.130583539251091</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>7.76429080580356E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>44023</v>
       </c>
@@ -1139,8 +1277,20 @@
         <f t="shared" si="0"/>
         <v>2954</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4.582361175921605</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>81.633224451703228</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>7.76429080580356E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>44024</v>
       </c>
@@ -1157,8 +1307,20 @@
         <f t="shared" si="0"/>
         <v>3013</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4.5007096744654547</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>81.704134426079392</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>7.7721974155854363E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>44025</v>
       </c>
@@ -1175,8 +1337,20 @@
         <f t="shared" si="0"/>
         <v>3083</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4.4474576271186441</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>81.618079096045193</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>7.7801040253673136E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>44026</v>
       </c>
@@ -1193,8 +1367,20 @@
         <f t="shared" si="0"/>
         <v>3327</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4.385613049872978</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>80.786201363818691</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>7.7801040253673136E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>44027</v>
       </c>
@@ -1211,8 +1397,20 @@
         <f t="shared" si="0"/>
         <v>4062</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4.2465044018643194</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>78.223718280683585</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>7.7801040253673136E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>44028</v>
       </c>
@@ -1229,8 +1427,20 @@
         <f t="shared" si="0"/>
         <v>3884</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.1897065078689923</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>79.289663972777547</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>7.7880106351491921E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>44029</v>
       </c>
@@ -1247,8 +1457,20 @@
         <f t="shared" si="0"/>
         <v>4175</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4.0864586790574178</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>78.592764686359104</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>7.7880106351491921E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
@@ -1265,8 +1487,20 @@
         <f t="shared" si="0"/>
         <v>4749</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3.9525374809588709</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>77.010342339453217</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>7.7959172449310683E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>44031</v>
       </c>
@@ -1283,8 +1517,20 @@
         <f t="shared" si="0"/>
         <v>5249</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>3.8748722785506562</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>75.497131179753211</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>7.7959172449310683E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>44032</v>
       </c>
@@ -1301,8 +1547,20 @@
         <f t="shared" si="0"/>
         <v>5115</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3.8434606706605465</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>76.258461059674786</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>7.811730464494823E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>44033</v>
       </c>
@@ -1319,8 +1577,20 @@
         <f t="shared" si="0"/>
         <v>5474</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3.7335147186637947</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>75.580999886634174</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>7.811730464494823E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>44034</v>
       </c>
@@ -1337,8 +1607,20 @@
         <f t="shared" si="0"/>
         <v>5664</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3.6482900943396226</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>75.47906839622641</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>7.8275436840585767E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>44035</v>
       </c>
@@ -1355,8 +1637,20 @@
         <f t="shared" si="0"/>
         <v>6244</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>3.5284911432026749</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>74.26193355623532</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>7.8433569036223325E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>44036</v>
       </c>
@@ -1373,8 +1667,20 @@
         <f t="shared" si="0"/>
         <v>6716</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>3.4414707613475053</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>73.306097012083242</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>7.8591701231860872E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>44037</v>
       </c>
@@ -1391,8 +1697,20 @@
         <f t="shared" si="0"/>
         <v>7224</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>3.3553429456946504</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>72.308314243363426</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>7.8749833427498429E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>44038</v>
       </c>
@@ -1409,8 +1727,20 @@
         <f t="shared" si="0"/>
         <v>7944</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>3.2669896556239362</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>70.728034568547855</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>7.8907965623135966E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>44039</v>
       </c>
@@ -1427,8 +1757,20 @@
         <f t="shared" si="0"/>
         <v>8174</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>3.2046753580373775</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>70.547813242566306</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>7.8907965623135966E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>44040</v>
       </c>
@@ -1445,8 +1787,20 @@
         <f t="shared" si="0"/>
         <v>8479</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>3.1168265039232779</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>70.482002740067244</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>7.9145163916592275E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>44041</v>
       </c>
@@ -1463,8 +1817,20 @@
         <f t="shared" si="0"/>
         <v>9030</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>2.9986220118626803</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>69.950871727278169</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>7.9145163916592275E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>44042</v>
       </c>
@@ -1481,8 +1847,20 @@
         <f t="shared" si="0"/>
         <v>10113</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2.8653539722285455</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>68.358752560892327</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>7.9619560503504938E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>44043</v>
       </c>
@@ -1499,8 +1877,20 @@
         <f t="shared" si="0"/>
         <v>10452</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2.7819175360158965</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>68.372247060771656</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>7.9698626601323701E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>44044</v>
       </c>
@@ -1517,8 +1907,20 @@
         <f t="shared" si="0"/>
         <v>11445</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2.6769654004867212</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>67.048460480372455</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>8.0014890992598795E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>44045</v>
       </c>
@@ -1535,8 +1937,20 @@
         <f t="shared" si="0"/>
         <v>12355</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2.5897331015441249</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>65.824726454647717</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>8.0093957090417579E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>44046</v>
       </c>
@@ -1553,8 +1967,20 @@
         <f t="shared" si="0"/>
         <v>12605</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2.5387166762263398</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>66.02658420409486</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>8.0489287579511447E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>44047</v>
       </c>
@@ -1571,8 +1997,20 @@
         <f t="shared" si="0"/>
         <v>13137</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2.4741819237187705</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>65.753259003071562</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>8.0884618068605303E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>44048</v>
       </c>
@@ -1589,8 +2027,20 @@
         <f t="shared" si="0"/>
         <v>13638</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2.4082837464273998</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>65.642130909431657</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>8.1279948557699171E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>44049</v>
       </c>
@@ -1607,8 +2057,20 @@
         <f t="shared" si="0"/>
         <v>14275</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>2.3411144066837233</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>65.338374804718455</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>8.1754345144611812E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>44050</v>
       </c>
@@ -1625,8 +2087,20 @@
         <f t="shared" si="0"/>
         <v>14481</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>2.2768988724761821</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>66.080325146403283</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>8.2386873927162E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>44051</v>
       </c>
@@ -1643,8 +2117,20 @@
         <f t="shared" si="0"/>
         <v>15052</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>2.201005449706392</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>66.004816019602046</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>8.2386873927162E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>44052</v>
       </c>
@@ -1661,8 +2147,20 @@
         <f t="shared" si="0"/>
         <v>14868</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>2.1462834652125782</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>67.375261366897618</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>8.2782204416255868E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>44053</v>
       </c>
@@ -1679,8 +2177,20 @@
         <f t="shared" si="0"/>
         <v>15115</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>2.120241046415543</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>67.416409698288888</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>8.3177534905349735E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>44054</v>
       </c>
@@ -1697,8 +2207,20 @@
         <f t="shared" si="0"/>
         <v>15108</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>2.1032960916066954</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>67.86211283845573</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>8.3651931492262376E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>44055</v>
       </c>
@@ -1715,8 +2237,20 @@
         <f t="shared" si="0"/>
         <v>15253</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>2.0784588987677428</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>68.181640929652161</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>8.4284460274812564E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44056</v>
       </c>
@@ -1733,8 +2267,20 @@
         <f t="shared" si="0"/>
         <v>15207</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>2.0449391092222369</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>68.973337653179854</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>8.4837922959543979E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>44057</v>
       </c>
@@ -1751,8 +2297,20 @@
         <f t="shared" si="0"/>
         <v>17240</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>2.0067635363632985</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>65.959344457244782</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>8.5391385644275394E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>44058</v>
       </c>
@@ -1769,8 +2327,20 @@
         <f t="shared" si="0"/>
         <v>14519</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1.9854316906141578</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>71.640842128208391</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>8.641924491591946E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>44059</v>
       </c>
@@ -1787,8 +2357,20 @@
         <f t="shared" si="0"/>
         <v>14411</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1.9670435495951779</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>72.332988550843524</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>8.7209905894107184E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>44060</v>
       </c>
@@ -1805,8 +2387,20 @@
         <f t="shared" si="0"/>
         <v>14014</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1.9606114568824162</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>73.330747394960952</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>8.7921500774476146E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>44061</v>
       </c>
@@ -1823,8 +2417,20 @@
         <f t="shared" si="0"/>
         <v>13536</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1.9692553265320285</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>74.545422999514187</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>8.9740021024307948E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>44062</v>
       </c>
@@ -1841,8 +2447,20 @@
         <f t="shared" si="0"/>
         <v>13794</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>1.9547745538754939</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>74.557281024383599</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>9.0767880295951993E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>44063</v>
       </c>
@@ -1859,8 +2477,20 @@
         <f t="shared" si="0"/>
         <v>13633</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>1.9315525876460768</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>75.308848080133558</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>9.1479475176320965E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>44064</v>
       </c>
@@ -1877,8 +2507,20 @@
         <f t="shared" si="0"/>
         <v>13510</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1.9278413099476612</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>75.906085415675406</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>9.2902664937058877E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>44065</v>
       </c>
@@ -1895,8 +2537,20 @@
         <f t="shared" si="0"/>
         <v>13319</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>1.9041927773111957</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>76.584404677304747</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>9.3218929328333982E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>44066</v>
       </c>
@@ -1913,8 +2567,20 @@
         <f t="shared" si="0"/>
         <v>13151</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>1.8960068945705257</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>77.115452136997675</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>9.3930524208702933E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>44067</v>
       </c>
@@ -1931,8 +2597,20 @@
         <f t="shared" si="0"/>
         <v>12868</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>1.9015801640330601</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>77.724120459799224</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>9.4958383480346978E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>44068</v>
       </c>
@@ -1949,8 +2627,20 @@
         <f t="shared" si="0"/>
         <v>12577</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>1.9080265464562984</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>78.405960430753822</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>9.6381573241084912E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>44069</v>
       </c>
@@ -1967,8 +2657,20 @@
         <f t="shared" si="0"/>
         <v>12142</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>1.8987634881674618</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>79.357507834329027</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>9.7251300317091421E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>44070</v>
       </c>
@@ -1985,8 +2687,20 @@
         <f t="shared" si="0"/>
         <v>11870</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>1.8902411161713859</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>80.029853928990306</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>9.812102739309794E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>44071</v>
       </c>
@@ -2003,8 +2717,20 @@
         <f t="shared" si="0"/>
         <v>11557</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>1.8812312967112288</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>80.739559993383352</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>9.8911688371285653E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>44072</v>
       </c>
@@ -2021,8 +2747,20 @@
         <f t="shared" si="0"/>
         <v>11199</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>1.8870725877095305</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>81.485605689427345</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>1.0049301032766115E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>44073</v>
       </c>
@@ -2039,8 +2777,20 @@
         <f t="shared" si="0"/>
         <v>10973</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>1.8908737749786635</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>81.962388534094586</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>1.0159993569712397E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>44074</v>
       </c>
@@ -2057,8 +2807,20 @@
         <f t="shared" si="0"/>
         <v>10760</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>1.89777179952044</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>82.370314053453413</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>1.0262779496876802E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>44075</v>
       </c>
@@ -2075,8 +2837,20 @@
         <f t="shared" si="0"/>
         <v>10207</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>1.9022644625704477</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>83.30991118902395</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>1.0381378643604963E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>44076</v>
       </c>
@@ -2093,8 +2867,20 @@
         <f t="shared" si="0"/>
         <v>10184</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>1.9060888550539365</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>83.465720564788342</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>1.0492071180551246E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>44077</v>
       </c>
@@ -2111,8 +2897,20 @@
         <f t="shared" si="0"/>
         <v>10744</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>1.8981758160448503</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>82.813967386664388</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>1.0547417449024387E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>44078</v>
       </c>
@@ -2126,11 +2924,23 @@
         <v>60093</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">B67-C67-D67</f>
+        <f t="shared" ref="E67:E130" si="4">B67-C67-D67</f>
         <v>9421</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="5">C67/B67*100</f>
+        <v>1.9078260378742982</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="6">D67/B67*100</f>
+        <v>84.798069596139186</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="7">C67/126476458*100</f>
+        <v>1.0689736425098179E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>44079</v>
       </c>
@@ -2144,11 +2954,23 @@
         <v>61099</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9007</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>1.9043754460100468</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>85.492604978521555</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>1.0760895913135076E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>44080</v>
       </c>
@@ -2162,11 +2984,23 @@
         <v>61730</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8822</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>1.8993854111627133</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>85.833866347784976</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>1.0800428962044462E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>44081</v>
       </c>
@@ -2180,11 +3014,23 @@
         <v>62190</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8646</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>1.9068588758256824</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>86.120227659839642</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>1.0887401669645114E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>44082</v>
       </c>
@@ -2198,11 +3044,23 @@
         <v>62936</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8390</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>1.9223365051427312</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>86.540894340245316</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>1.1053440475064537E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>44083</v>
       </c>
@@ -2216,11 +3074,23 @@
         <v>63734</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>1.9272766979689888</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>86.992247215549241</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>1.116413301201082E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>44084</v>
       </c>
@@ -2234,11 +3104,23 @@
         <v>64489</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8011</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>1.9156880783592185</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>87.246333676064722</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>1.1195759451138329E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>44085</v>
       </c>
@@ -2252,11 +3134,23 @@
         <v>65244</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7886</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>1.9152874272378551</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>87.507712116741331</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>1.1290638768520858E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>44086</v>
       </c>
@@ -2270,11 +3164,23 @@
         <v>65934</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7831</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>1.9160705262877962</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>87.671196447091987</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>1.1393424695685264E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>44087</v>
       </c>
@@ -2288,11 +3194,23 @@
         <v>66524</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7674</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>1.9141792031303704</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>87.941199799064066</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>1.1448770964158405E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>44088</v>
       </c>
@@ -2306,11 +3224,23 @@
         <v>66901</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7558</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>1.9166425165318648</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>88.12735463814316</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>1.1504117232631547E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>44089</v>
       </c>
@@ -2324,11 +3254,23 @@
         <v>66901</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8082</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>1.9137691965570469</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="6"/>
+        <v>87.514062213850295</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>1.1567370110886566E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>44090</v>
       </c>
@@ -2342,11 +3284,23 @@
         <v>68110</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7406</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>1.923451563047911</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="6"/>
+        <v>88.457991869813114</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>1.1709689086960356E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>44091</v>
       </c>
@@ -2360,11 +3314,23 @@
         <v>68827</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7171</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>1.9228783811686971</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="6"/>
+        <v>88.822785463555647</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>1.1780848574997253E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>44092</v>
       </c>
@@ -2378,11 +3344,23 @@
         <v>69468</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7093</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>1.9215741535465853</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="6"/>
+        <v>88.991942199049461</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>1.1859914672816027E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>44093</v>
       </c>
@@ -2396,11 +3374,23 @@
         <v>70051</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7107</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>1.9119778291932572</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="6"/>
+        <v>89.053164170755892</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>1.1891541111943536E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>44094</v>
       </c>
@@ -2414,11 +3404,23 @@
         <v>70604</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7030</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>1.9054357989436708</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="6"/>
+        <v>89.21179651765182</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>1.1923167551071046E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>44095</v>
       </c>
@@ -2432,11 +3434,23 @@
         <v>70970</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6974</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>1.9103470841408472</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>89.313130804661341</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>1.2002233648889819E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>44096</v>
       </c>
@@ -2450,11 +3464,23 @@
         <v>71214</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7040</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>1.9041530342346409</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>89.270805911774659</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>1.2010140258671698E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>44097</v>
       </c>
@@ -2468,11 +3494,23 @@
         <v>71547</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6937</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>1.9060355709982626</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>89.423689834893565</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>1.205757991736296E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>44098</v>
       </c>
@@ -2486,11 +3524,23 @@
         <v>72066</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6884</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>1.913281152938253</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>89.534103615355946</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>1.2176179064091121E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>44099</v>
       </c>
@@ -2504,11 +3554,23 @@
         <v>73016</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6494</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>1.9049029042366816</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="6"/>
+        <v>90.083154440249714</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>1.220780550321863E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>44100</v>
       </c>
@@ -2522,11 +3584,23 @@
         <v>73677</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6479</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>1.8934433252144964</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="6"/>
+        <v>90.176615301763704</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>1.2231525332564263E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>44101</v>
       </c>
@@ -2540,11 +3614,23 @@
         <v>73677</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6960</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>1.8847492273623245</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="6"/>
+        <v>89.64665514807875</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>1.2247338552128018E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>44102</v>
       </c>
@@ -2558,11 +3644,23 @@
         <v>74495</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6428</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>1.892488240143543</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>90.314485233499823</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>1.2342217869510546E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>44103</v>
       </c>
@@ -2576,11 +3674,23 @@
         <v>74962</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6492</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>1.88865601888656</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>90.291729902917297</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>1.2397564137983687E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>44104</v>
       </c>
@@ -2594,11 +3704,23 @@
         <v>75522</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6494</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>1.8841741335789739</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>90.34704693088969</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>1.2452910406456829E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>44105</v>
       </c>
@@ -2612,11 +3734,23 @@
         <v>76081</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6583</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>1.8755044869664308</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>90.310289160058872</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>1.2492443455366215E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>44106</v>
       </c>
@@ -2630,11 +3764,23 @@
         <v>76700</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6477</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>1.8768875047187619</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="6"/>
+        <v>90.482257455643648</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>1.2579416162966867E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>44107</v>
       </c>
@@ -2648,11 +3794,23 @@
         <v>76700</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7051</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>1.8677133985587908</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="6"/>
+        <v>89.870525514089877</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>1.2603135992312498E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>44108</v>
       </c>
@@ -2666,11 +3824,23 @@
         <v>77851</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6297</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>1.8636437851328342</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="6"/>
+        <v>90.792573414503295</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>1.2634762431440007E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>44109</v>
       </c>
@@ -2684,11 +3854,23 @@
         <v>78071</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6354</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>1.8622060515884546</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="6"/>
+        <v>90.751740732560705</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>1.2666388870567517E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>44110</v>
       </c>
@@ -2702,11 +3884,23 @@
         <v>78521</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6410</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>1.8592558354518143</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="6"/>
+        <v>90.733764733071411</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>1.2721735139040657E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>44111</v>
       </c>
@@ -2720,11 +3914,23 @@
         <v>79123</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6302</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>1.8543411574121944</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="6"/>
+        <v>90.905226392766451</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>1.2761268187950045E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>44112</v>
       </c>
@@ -2738,11 +3944,23 @@
         <v>79674</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6388</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>1.8442272379931339</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="6"/>
+        <v>90.870105726570785</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="7"/>
+        <v>1.2784988017295676E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>44113</v>
       </c>
@@ -2756,11 +3974,23 @@
         <v>80140</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6504</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>1.8387392796854998</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="6"/>
+        <v>90.792708486750428</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="7"/>
+        <v>1.283242767598694E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>44114</v>
       </c>
@@ -2774,11 +4004,23 @@
         <v>80798</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6538</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>1.8277466783570513</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="6"/>
+        <v>90.823048042984638</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="7"/>
+        <v>1.2856147505332575E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>44115</v>
       </c>
@@ -2792,11 +4034,23 @@
         <v>81266</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6506</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>1.8210290827740492</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="6"/>
+        <v>90.901565995525729</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="7"/>
+        <v>1.2871960724896328E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>44116</v>
       </c>
@@ -2810,11 +4064,23 @@
         <v>81552</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6469</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>1.8192566813902646</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="6"/>
+        <v>90.965064917681701</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="7"/>
+        <v>1.2895680554241959E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>44117</v>
       </c>
@@ -2828,11 +4094,23 @@
         <v>82063</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6455</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>1.8135835745898636</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="6"/>
+        <v>91.026366288420789</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="7"/>
+        <v>1.292730699336947E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>44118</v>
       </c>
@@ -2846,11 +4124,23 @@
         <v>82576</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6472</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>1.8148940392969766</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="6"/>
+        <v>91.049021986018914</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="7"/>
+        <v>1.301427970097012E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>44119</v>
       </c>
@@ -2864,11 +4154,23 @@
         <v>83272</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6480</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>1.8052121397781229</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="6"/>
+        <v>91.105227456729608</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="7"/>
+        <v>1.304590614009763E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>44120</v>
       </c>
@@ -2882,11 +4184,23 @@
         <v>83882</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6498</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>1.8078310373299724</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="6"/>
+        <v>91.132501846942773</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="7"/>
+        <v>1.3156598677043913E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>44121</v>
       </c>
@@ -2900,11 +4214,23 @@
         <v>84461</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6539</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>1.8020934498759036</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="6"/>
+        <v>91.141685550879473</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="7"/>
+        <v>1.3204038335735177E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>44122</v>
       </c>
@@ -2918,11 +4244,23 @@
         <v>84461</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6965</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>1.7959569485918063</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="6"/>
+        <v>90.72267932716062</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="7"/>
+        <v>1.3219851555298931E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>44123</v>
       </c>
@@ -2936,11 +4274,23 @@
         <v>85310</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6422</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>1.7942788626241866</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="6"/>
+        <v>91.330507022953071</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="7"/>
+        <v>1.3251477994426441E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>44124</v>
       </c>
@@ -2954,11 +4304,23 @@
         <v>85867</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6349</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>1.7881676340593216</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="6"/>
+        <v>91.450023962937323</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="7"/>
+        <v>1.3275197823772074E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>44125</v>
       </c>
@@ -2972,11 +4334,23 @@
         <v>86429</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6400</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>1.7838438343120138</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="6"/>
+        <v>91.444744220494101</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="7"/>
+        <v>1.3330544092245214E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>44126</v>
       </c>
@@ -2990,11 +4364,23 @@
         <v>87022</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6415</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>1.7837996930645195</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="6"/>
+        <v>91.473080076523644</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="7"/>
+        <v>1.3417516799845866E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>44127</v>
       </c>
@@ -3008,11 +4394,23 @@
         <v>87600</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6562</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>1.779530187340927</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="6"/>
+        <v>91.375641507072231</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="7"/>
+        <v>1.3488676287882761E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <v>44128</v>
       </c>
@@ -3026,11 +4424,23 @@
         <v>88138</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6751</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>1.7702046605037318</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="6"/>
+        <v>91.241110156419836</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="7"/>
+        <v>1.3520302727010271E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>44129</v>
       </c>
@@ -3044,11 +4454,23 @@
         <v>88610</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6769</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>1.7673412637107988</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="6"/>
+        <v>91.261136000823939</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="7"/>
+        <v>1.3567742385701535E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <v>44130</v>
       </c>
@@ -3062,11 +4484,23 @@
         <v>89031</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6751</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>1.7650738951622003</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="6"/>
+        <v>91.311036583489738</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="7"/>
+        <v>1.3607275434610923E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <v>44131</v>
       </c>
@@ -3080,11 +4514,23 @@
         <v>89465</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6955</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F120">
+        <f t="shared" si="5"/>
+        <v>1.7586045279481588</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="6"/>
+        <v>91.155013958796076</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="7"/>
+        <v>1.364680848352031E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <v>44132</v>
       </c>
@@ -3098,11 +4544,23 @@
         <v>90118</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7028</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F121">
+        <f t="shared" si="5"/>
+        <v>1.7506599107982646</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="6"/>
+        <v>91.141519261304452</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="7"/>
+        <v>1.3686341532429694E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <v>44133</v>
       </c>
@@ -3116,11 +4574,23 @@
         <v>90624</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7302</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F122">
+        <f t="shared" si="5"/>
+        <v>1.7537171178040414</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="6"/>
+        <v>90.920400505648416</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="7"/>
+        <v>1.382075389872161E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <v>44134</v>
       </c>
@@ -3134,11 +4604,23 @@
         <v>91184</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7510</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F123">
+        <f t="shared" si="5"/>
+        <v>1.748133399701344</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="6"/>
+        <v>90.775510204081627</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="7"/>
+        <v>1.3884006776976629E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <v>44135</v>
       </c>
@@ -3152,11 +4634,23 @@
         <v>89765</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9793</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F124">
+        <f t="shared" si="5"/>
+        <v>1.7458327987604487</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="6"/>
+        <v>88.589418417598466</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="7"/>
+        <v>1.3986792704141035E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <v>44136</v>
       </c>
@@ -3170,11 +4664,23 @@
         <v>92250</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7917</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F125">
+        <f t="shared" si="5"/>
+        <v>1.7421500250139783</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="6"/>
+        <v>90.491745387128091</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="7"/>
+        <v>1.4042138972614176E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <v>44137</v>
       </c>
@@ -3188,11 +4694,23 @@
         <v>92673</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7971</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F126">
+        <f t="shared" si="5"/>
+        <v>1.7445890404272146</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="6"/>
+        <v>90.47358709765598</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="7"/>
+        <v>1.4129111680214828E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <v>44138</v>
       </c>
@@ -3206,11 +4724,23 @@
         <v>93133</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8382</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F127">
+        <f t="shared" si="5"/>
+        <v>1.7365379589387178</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="6"/>
+        <v>90.149938533912817</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="7"/>
+        <v>1.4184457948687968E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <v>44139</v>
       </c>
@@ -3224,11 +4754,23 @@
         <v>93564</v>
       </c>
       <c r="E128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8565</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F128">
+        <f t="shared" si="5"/>
+        <v>1.7310060811330921</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="6"/>
+        <v>90.027711492571783</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="7"/>
+        <v>1.4223990997597356E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <v>44140</v>
       </c>
@@ -3242,11 +4784,23 @@
         <v>94376</v>
       </c>
       <c r="E129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8782</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F129">
+        <f t="shared" si="5"/>
+        <v>1.7205899165428147</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="6"/>
+        <v>89.91273198429937</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="7"/>
+        <v>1.4279337266070496E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <v>44141</v>
       </c>
@@ -3260,11 +4814,23 @@
         <v>95010</v>
       </c>
       <c r="E130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9316</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F130">
+        <f t="shared" si="5"/>
+        <v>1.7053591618301049</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="6"/>
+        <v>89.517223185347106</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="7"/>
+        <v>1.4310963705198006E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <v>44142</v>
       </c>
@@ -3278,11 +4844,23 @@
         <v>95703</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E193" si="2">B131-C131-D131</f>
+        <f t="shared" ref="E131:E193" si="8">B131-C131-D131</f>
         <v>9921</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="9">C131/B131*100</f>
+        <v>1.6893306899729148</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="10">D131/B131*100</f>
+        <v>89.076592298885885</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="11">C131/126476458*100</f>
+        <v>1.4350496754107394E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <v>44143</v>
       </c>
@@ -3296,11 +4874,23 @@
         <v>96430</v>
       </c>
       <c r="E132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10143</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F132">
+        <f t="shared" si="9"/>
+        <v>1.6799822868424452</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="10"/>
+        <v>88.962488698636449</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="11"/>
+        <v>1.4397936412798658E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <v>44144</v>
       </c>
@@ -3314,11 +4904,23 @@
         <v>96684</v>
       </c>
       <c r="E133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10673</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F133">
+        <f t="shared" si="9"/>
+        <v>1.6796256101693365</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="10"/>
+        <v>88.545759265873556</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="11"/>
+        <v>1.4500722339963062E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <v>44145</v>
       </c>
@@ -3332,11 +4934,23 @@
         <v>98487</v>
       </c>
       <c r="E134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10160</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F134">
+        <f t="shared" si="9"/>
+        <v>1.665354295075439</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="10"/>
+        <v>89.138993727768877</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="11"/>
+        <v>1.4548161998654326E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <v>44146</v>
       </c>
@@ -3350,11 +4964,23 @@
         <v>98305</v>
       </c>
       <c r="E135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>11859</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F135">
+        <f t="shared" si="9"/>
+        <v>1.648945192882842</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="10"/>
+        <v>87.763701779289534</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="11"/>
+        <v>1.4603508267127469E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <v>44147</v>
       </c>
@@ -3368,11 +4994,23 @@
         <v>99282</v>
       </c>
       <c r="E136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>12519</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F136">
+        <f t="shared" si="9"/>
+        <v>1.6312524745941666</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="10"/>
+        <v>87.353833971228724</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="11"/>
+        <v>1.4658854535600609E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <v>44148</v>
       </c>
@@ -3386,11 +5024,23 @@
         <v>100197</v>
       </c>
       <c r="E137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>13299</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F137">
+        <f t="shared" si="9"/>
+        <v>1.6158113730929262</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="10"/>
+        <v>86.855929264909847</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="11"/>
+        <v>1.4737920633419383E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <v>44149</v>
       </c>
@@ -3404,11 +5054,23 @@
         <v>101162</v>
       </c>
       <c r="E138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14086</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F138">
+        <f t="shared" si="9"/>
+        <v>1.5924790586869093</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="10"/>
+        <v>86.379821198329822</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="11"/>
+        <v>1.4745827243201261E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <v>44150</v>
       </c>
@@ -3422,11 +5084,23 @@
         <v>91954</v>
       </c>
       <c r="E139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>24783</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F139">
+        <f t="shared" si="9"/>
+        <v>1.5799546416436925</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="10"/>
+        <v>77.52569323249952</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="11"/>
+        <v>1.4816986731238156E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <v>44151</v>
       </c>
@@ -3440,11 +5114,23 @@
         <v>102810</v>
       </c>
       <c r="E140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14864</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F140">
+        <f t="shared" si="9"/>
+        <v>1.5749809714194902</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="10"/>
+        <v>85.99245548148582</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="11"/>
+        <v>1.4888146219275054E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <v>44152</v>
       </c>
@@ -3458,11 +5144,23 @@
         <v>103778</v>
       </c>
       <c r="E141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>15574</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F141">
+        <f t="shared" si="9"/>
+        <v>1.56292526825406</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="10"/>
+        <v>85.592220838453741</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="11"/>
+        <v>1.498302553665758E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <v>44153</v>
       </c>
@@ -3476,11 +5174,23 @@
         <v>104837</v>
       </c>
       <c r="E142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>16732</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F142">
+        <f t="shared" si="9"/>
+        <v>1.5452270463325153</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="10"/>
+        <v>84.904071203543978</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="11"/>
+        <v>1.5085811463821986E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <v>44154</v>
       </c>
@@ -3494,11 +5204,23 @@
         <v>106074</v>
       </c>
       <c r="E143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>17865</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F143">
+        <f t="shared" si="9"/>
+        <v>1.5255166495840582</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="10"/>
+        <v>84.280027649989279</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="11"/>
+        <v>1.5180690781204514E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <v>44155</v>
       </c>
@@ -3512,11 +5234,23 @@
         <v>107521</v>
       </c>
       <c r="E144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>18834</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F144">
+        <f t="shared" si="9"/>
+        <v>1.5044627197256109</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="10"/>
+        <v>83.814163775967572</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="11"/>
+        <v>1.5259756879023286E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <v>44156</v>
       </c>
@@ -3530,11 +5264,23 @@
         <v>108981</v>
       </c>
       <c r="E145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>19958</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F145">
+        <f t="shared" si="9"/>
+        <v>1.4762628848255153</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="10"/>
+        <v>83.27360530598834</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="11"/>
+        <v>1.5275570098587043E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>44157</v>
       </c>
@@ -3548,11 +5294,23 @@
         <v>110273</v>
       </c>
       <c r="E146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>20818</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F146">
+        <f t="shared" si="9"/>
+        <v>1.4605288873521056</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="10"/>
+        <v>82.890839935655549</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="11"/>
+        <v>1.5362542806187692E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <v>44158</v>
       </c>
@@ -3566,11 +5324,23 @@
         <v>111343</v>
       </c>
       <c r="E147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>21262</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F147">
+        <f t="shared" si="9"/>
+        <v>1.4484890824501688</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="10"/>
+        <v>82.749676709722479</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="11"/>
+        <v>1.5409982464878957E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <v>44159</v>
       </c>
@@ -3584,11 +5354,23 @@
         <v>112385</v>
       </c>
       <c r="E148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>21438</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F148">
+        <f t="shared" si="9"/>
+        <v>1.4456571369655193</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="10"/>
+        <v>82.766264563357055</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="11"/>
+        <v>1.5520675001825242E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <v>44160</v>
       </c>
@@ -3602,11 +5384,23 @@
         <v>114569</v>
       </c>
       <c r="E149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>21183</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F149">
+        <f t="shared" si="9"/>
+        <v>1.4397212037608451</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="10"/>
+        <v>83.18074563473337</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="11"/>
+        <v>1.5678807197462789E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <v>44161</v>
       </c>
@@ -3620,11 +5414,23 @@
         <v>116222</v>
       </c>
       <c r="E150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>22007</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F150">
+        <f t="shared" si="9"/>
+        <v>1.4234266357639507</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="10"/>
+        <v>82.882510251381703</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="11"/>
+        <v>1.5781593124627193E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <v>44162</v>
       </c>
@@ -3638,11 +5444,23 @@
         <v>117709</v>
       </c>
       <c r="E151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23041</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F151">
+        <f t="shared" si="9"/>
+        <v>1.420386894339464</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="10"/>
+        <v>82.441972852960546</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="11"/>
+        <v>1.6034604637647268E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <v>44163</v>
       </c>
@@ -3656,11 +5474,23 @@
         <v>120103</v>
       </c>
       <c r="E152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23312</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F152">
+        <f t="shared" si="9"/>
+        <v>1.4038513100091436</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="10"/>
+        <v>82.569419141051995</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="11"/>
+        <v>1.6145297174593553E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <v>44164</v>
       </c>
@@ -3674,11 +5504,23 @@
         <v>121735</v>
       </c>
       <c r="E153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23723</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F153">
+        <f t="shared" si="9"/>
+        <v>1.394434464291767</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="10"/>
+        <v>82.523811137850387</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="11"/>
+        <v>1.6263896321321713E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <v>44165</v>
       </c>
@@ -3692,11 +5534,23 @@
         <v>127289</v>
       </c>
       <c r="E154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>19597</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F154">
+        <f t="shared" si="9"/>
+        <v>1.3936440165948363</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="10"/>
+        <v>85.450651844094466</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="11"/>
+        <v>1.6414121907177381E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <v>44166</v>
       </c>
@@ -3710,11 +5564,23 @@
         <v>125304</v>
       </c>
       <c r="E155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>23563</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F155">
+        <f t="shared" si="9"/>
+        <v>1.3969107672742687</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="10"/>
+        <v>82.995972869860111</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="11"/>
+        <v>1.6675040029979333E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <v>44167</v>
       </c>
@@ -3728,11 +5594,23 @@
         <v>127148</v>
       </c>
       <c r="E156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>24143</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F156">
+        <f t="shared" si="9"/>
+        <v>1.3954064341206529</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="10"/>
+        <v>82.869284112831735</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="11"/>
+        <v>1.692805154299941E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <v>44168</v>
       </c>
@@ -3746,11 +5624,23 @@
         <v>129085</v>
       </c>
       <c r="E157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>24679</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F157">
+        <f t="shared" si="9"/>
+        <v>1.3941438263925405</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="10"/>
+        <v>82.77969449396555</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="11"/>
+        <v>1.7188969665801359E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <v>44169</v>
       </c>
@@ -3764,11 +5654,23 @@
         <v>131020</v>
       </c>
       <c r="E158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25157</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F158">
+        <f t="shared" si="9"/>
+        <v>1.3953165348166201</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="10"/>
+        <v>82.721435471345501</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="11"/>
+        <v>1.7473607617948946E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <v>44170</v>
       </c>
@@ -3782,11 +5684,23 @@
         <v>133287</v>
       </c>
       <c r="E159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25354</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F159">
+        <f t="shared" si="9"/>
+        <v>1.38559084975446</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="10"/>
+        <v>82.853857151737429</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="11"/>
+        <v>1.7623833203804617E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <v>44171</v>
       </c>
@@ -3800,11 +5714,23 @@
         <v>135121</v>
       </c>
       <c r="E160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25537</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F160">
+        <f t="shared" si="9"/>
+        <v>1.3865956284488421</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="10"/>
+        <v>82.938551532375385</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="11"/>
+        <v>1.7861031497260935E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <v>44172</v>
       </c>
@@ -3818,11 +5744,23 @@
         <v>136747</v>
       </c>
       <c r="E161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25388</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F161">
+        <f t="shared" si="9"/>
+        <v>1.3981293406473114</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="10"/>
+        <v>83.162241385601519</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="11"/>
+        <v>1.8177295888536029E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <v>44173</v>
       </c>
@@ -3836,11 +5774,23 @@
         <v>138838</v>
       </c>
       <c r="E162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>25420</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F162">
+        <f t="shared" si="9"/>
+        <v>1.4010276603918557</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="10"/>
+        <v>83.340136381098731</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="11"/>
+        <v>1.8454027230901738E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <v>44174</v>
       </c>
@@ -3854,11 +5804,23 @@
         <v>140466</v>
       </c>
       <c r="E163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>26587</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F163">
+        <f t="shared" si="9"/>
+        <v>1.4023573296188965</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="10"/>
+        <v>82.905523847747432</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="11"/>
+        <v>1.8786104841740587E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <v>44175</v>
       </c>
@@ -3872,11 +5834,23 @@
         <v>142850</v>
       </c>
       <c r="E164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>27161</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F164">
+        <f t="shared" si="9"/>
+        <v>1.3891627901581152</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="10"/>
+        <v>82.856745124879652</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="11"/>
+        <v>1.8936330427596257E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <v>44176</v>
       </c>
@@ -3890,11 +5864,23 @@
         <v>144858</v>
       </c>
       <c r="E165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>28006</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F165">
+        <f t="shared" si="9"/>
+        <v>1.3952427129085621</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="10"/>
+        <v>82.629627516969933</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="11"/>
+        <v>1.9339567526472001E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <v>44177</v>
       </c>
@@ -3908,11 +5894,23 @@
         <v>147368</v>
       </c>
       <c r="E166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>28442</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F166">
+        <f t="shared" si="9"/>
+        <v>1.3810357206964639</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="10"/>
+        <v>82.664692155806847</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="11"/>
+        <v>1.9466073282982039E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <v>44178</v>
       </c>
@@ -3926,11 +5924,23 @@
         <v>149130</v>
       </c>
       <c r="E167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>29028</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F167">
+        <f t="shared" si="9"/>
+        <v>1.3734575589988873</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="10"/>
+        <v>82.556922923621144</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="11"/>
+        <v>1.9616298868837707E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <v>44179</v>
       </c>
@@ -3944,11 +5954,23 @@
         <v>150791</v>
       </c>
       <c r="E168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>28990</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F168">
+        <f t="shared" si="9"/>
+        <v>1.3877385347016911</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="10"/>
+        <v>82.710862207985258</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="11"/>
+        <v>2.0003722748149701E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <v>44180</v>
       </c>
@@ -3962,11 +5984,23 @@
         <v>153363</v>
       </c>
       <c r="E169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>28808</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F169">
+        <f t="shared" si="9"/>
+        <v>1.3970078808348489</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="10"/>
+        <v>83.010197453884132</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="11"/>
+        <v>2.0406959847025443E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <v>44181</v>
       </c>
@@ -3980,11 +6014,23 @@
         <v>155391</v>
       </c>
       <c r="E170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>29737</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F170">
+        <f t="shared" si="9"/>
+        <v>1.3970631314879813</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="10"/>
+        <v>82.764406048436484</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="11"/>
+        <v>2.0739037457864293E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <v>44182</v>
       </c>
@@ -3998,11 +6044,23 @@
         <v>158131</v>
       </c>
       <c r="E171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30158</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F171">
+        <f t="shared" si="9"/>
+        <v>1.3935585231736056</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="10"/>
+        <v>82.812778214192193</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="11"/>
+        <v>2.1039488629575635E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <v>44183</v>
       </c>
@@ -4016,11 +6074,23 @@
         <v>160630</v>
       </c>
       <c r="E172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30414</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F172">
+        <f t="shared" si="9"/>
+        <v>1.3981718992738177</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="10"/>
+        <v>82.904522768679712</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="11"/>
+        <v>2.1419005899105743E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <v>44184</v>
       </c>
@@ -4034,11 +6104,23 @@
         <v>163152</v>
       </c>
       <c r="E173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30914</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F173">
+        <f t="shared" si="9"/>
+        <v>1.3967431344155679</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="10"/>
+        <v>82.896120722505913</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="11"/>
+        <v>2.1735270290380838E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <v>44185</v>
       </c>
@@ -4052,11 +6134,23 @@
         <v>165177</v>
       </c>
       <c r="E174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>31309</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F174">
+        <f t="shared" si="9"/>
+        <v>1.3970994128569276</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="10"/>
+        <v>82.891052341044812</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="11"/>
+        <v>2.2012001632746546E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <v>44186</v>
       </c>
@@ -4070,11 +6164,23 @@
         <v>167357</v>
       </c>
       <c r="E175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30884</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F175">
+        <f t="shared" si="9"/>
+        <v>1.4089340242895649</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="10"/>
+        <v>83.231546594785996</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="11"/>
+        <v>2.2399425512058539E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <v>44187</v>
       </c>
@@ -4088,11 +6194,23 @@
         <v>169186</v>
       </c>
       <c r="E176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>31669</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F176">
+        <f t="shared" si="9"/>
+        <v>1.4121492941707734</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="10"/>
+        <v>83.043409969960535</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="11"/>
+        <v>2.2747316342461143E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <v>44188</v>
       </c>
@@ -4106,11 +6224,23 @@
         <v>171959</v>
       </c>
       <c r="E177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>32107</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F177">
+        <f t="shared" si="9"/>
+        <v>1.4207249030226032</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="10"/>
+        <v>83.069171573908136</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="11"/>
+        <v>2.3253339368501289E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <v>44189</v>
       </c>
@@ -4124,11 +6254,23 @@
         <v>174723</v>
       </c>
       <c r="E178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>33079</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F178">
+        <f t="shared" si="9"/>
+        <v>1.4077022712068663</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="10"/>
+        <v>82.897864486712947</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="11"/>
+        <v>2.3458911222830102E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <v>44190</v>
       </c>
@@ -4142,11 +6284,23 @@
         <v>177637</v>
       </c>
       <c r="E179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>33922</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F179">
+        <f t="shared" si="9"/>
+        <v>1.4055691483164394</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="10"/>
+        <v>82.78550623325178</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="11"/>
+        <v>2.3846335102142091E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <v>44191</v>
       </c>
@@ -4160,11 +6314,23 @@
         <v>180032</v>
       </c>
       <c r="E180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>35373</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F180">
+        <f t="shared" si="9"/>
+        <v>1.4015846786928918</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="10"/>
+        <v>82.406953910659269</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="11"/>
+        <v>2.4210039152108447E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <v>44192</v>
       </c>
@@ -4178,11 +6344,23 @@
         <v>182440</v>
       </c>
       <c r="E181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>35872</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F181">
+        <f t="shared" si="9"/>
+        <v>1.4001047820353008</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="10"/>
+        <v>82.398424656296854</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="11"/>
+        <v>2.4510490323819789E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <v>44193</v>
       </c>
@@ -4196,11 +6374,23 @@
         <v>184506</v>
       </c>
       <c r="E182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>36128</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F182">
+        <f t="shared" si="9"/>
+        <v>1.4084884666601127</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="10"/>
+        <v>82.447516824108746</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="11"/>
+        <v>2.4921634032477411E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <v>44194</v>
       </c>
@@ -4214,11 +6404,23 @@
         <v>186790</v>
       </c>
       <c r="E183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>37429</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F183">
+        <f t="shared" si="9"/>
+        <v>1.4053602444869511</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="10"/>
+        <v>82.136182749598746</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="11"/>
+        <v>2.5269524862880015E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <v>44195</v>
       </c>
@@ -4232,11 +6434,23 @@
         <v>189310</v>
       </c>
       <c r="E184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>38718</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F184">
+        <f t="shared" si="9"/>
+        <v>1.4022510388245824</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="10"/>
+        <v>81.856350342239196</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="11"/>
+        <v>2.5641135522628251E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <v>44196</v>
       </c>
@@ -4250,11 +6464,23 @@
         <v>191295</v>
       </c>
       <c r="E185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>41224</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F185">
+        <f t="shared" si="9"/>
+        <v>1.3960332639274673</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="10"/>
+        <v>81.122169873330762</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="11"/>
+        <v>2.602855940194024E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <v>44197</v>
       </c>
@@ -4268,11 +6494,23 @@
         <v>193558</v>
       </c>
       <c r="E186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>41970</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F186">
+        <f t="shared" si="9"/>
+        <v>1.4807502467917077</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="10"/>
+        <v>80.963575217093037</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="11"/>
+        <v>2.7989398627845823E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <v>44198</v>
       </c>
@@ -4286,11 +6524,23 @@
         <v>196264</v>
       </c>
       <c r="E187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>42262</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F187">
+        <f t="shared" si="9"/>
+        <v>1.4750286042371445</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="10"/>
+        <v>81.068332114813472</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="11"/>
+        <v>2.8234503531084022E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <v>44199</v>
       </c>
@@ -4304,11 +6554,23 @@
         <v>198330</v>
       </c>
       <c r="E188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>43332</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F188">
+        <f t="shared" si="9"/>
+        <v>1.4802705336067479</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="10"/>
+        <v>80.854325235534645</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="11"/>
+        <v>2.8708900117996664E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <v>44200</v>
       </c>
@@ -4322,11 +6584,23 @@
         <v>200520</v>
       </c>
       <c r="E189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>44426</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F189">
+        <f t="shared" si="9"/>
+        <v>1.4797385620915033</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="10"/>
+        <v>80.651583710407238</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="11"/>
+        <v>2.9088417387526776E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <v>44201</v>
       </c>
@@ -4340,11 +6614,23 @@
         <v>203265</v>
       </c>
       <c r="E190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>46551</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F190">
+        <f t="shared" si="9"/>
+        <v>1.480847573263504</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="10"/>
+        <v>80.160980553769946</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="11"/>
+        <v>2.9689319730949455E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <v>44202</v>
       </c>
@@ -4358,11 +6644,23 @@
         <v>206883</v>
       </c>
       <c r="E191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>48818</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F191">
+        <f t="shared" si="9"/>
+        <v>1.4719425402953905</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="10"/>
+        <v>79.71724831516525</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="11"/>
+        <v>3.0203249366771482E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <v>44203</v>
       </c>
@@ -4376,11 +6674,23 @@
         <v>210295</v>
       </c>
       <c r="E192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>52905</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F192">
+        <f t="shared" si="9"/>
+        <v>1.4542241392221174</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="10"/>
+        <v>78.737400967485883</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="11"/>
+        <v>3.0709272392811637E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <v>44204</v>
       </c>
@@ -4394,11 +6704,23 @@
         <v>213581</v>
       </c>
       <c r="E193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>57404</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F193">
+        <f t="shared" si="9"/>
+        <v>1.4410049936896929</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="10"/>
+        <v>77.68078938850033</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="11"/>
+        <v>3.1325987955798064E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <v>44205</v>
       </c>
@@ -4412,11 +6734,23 @@
         <v>217213</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="3">B194-C194-D194</f>
+        <f t="shared" ref="E194:E257" si="12">B194-C194-D194</f>
         <v>61503</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F194">
+        <f t="shared" si="9"/>
+        <v>1.4221697195627032</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="10"/>
+        <v>76.825106017252793</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="11"/>
+        <v>3.1792477932928833E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <v>44206</v>
       </c>
@@ -4430,11 +6764,23 @@
         <v>220380</v>
       </c>
       <c r="E195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>64372</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F195">
+        <f t="shared" ref="F195:F258" si="13">C195/B195*100</f>
+        <v>1.4078069926389629</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G258" si="14">D195/B195*100</f>
+        <v>76.304108469693716</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H258" si="15">C195/126476458*100</f>
+        <v>3.2148275373113312E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <v>44207</v>
       </c>
@@ -4448,11 +6794,23 @@
         <v>222807</v>
       </c>
       <c r="E196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>66825</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F196">
+        <f t="shared" si="13"/>
+        <v>1.400529709340723</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="14"/>
+        <v>75.85022434348042</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="15"/>
+        <v>3.2527792642643425E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <v>44208</v>
       </c>
@@ -4466,11 +6824,23 @@
         <v>225240</v>
       </c>
       <c r="E197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>68903</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F197">
+        <f t="shared" si="13"/>
+        <v>1.4005048253391481</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="14"/>
+        <v>75.502562675775422</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="15"/>
+        <v>3.3033815668683576E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <v>44209</v>
       </c>
@@ -4484,11 +6854,23 @@
         <v>228917</v>
       </c>
       <c r="E198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>70948</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F198">
+        <f t="shared" si="13"/>
+        <v>1.4056026829749457</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="14"/>
+        <v>75.266982310777934</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="15"/>
+        <v>3.3800756817525678E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <v>44210</v>
       </c>
@@ -4502,11 +6884,23 @@
         <v>233509</v>
       </c>
       <c r="E199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>72884</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F199">
+        <f t="shared" si="13"/>
+        <v>1.3970148100948079</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="14"/>
+        <v>75.147553856353028</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="15"/>
+        <v>3.4322593063129585E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <v>44211</v>
       </c>
@@ -4520,11 +6914,23 @@
         <v>238311</v>
       </c>
       <c r="E200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>75141</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F200">
+        <f t="shared" si="13"/>
+        <v>1.3901865851241542</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="14"/>
+        <v>74.970978793284075</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="15"/>
+        <v>3.4939308626116016E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <v>44212</v>
       </c>
@@ -4538,11 +6944,23 @@
         <v>243817</v>
       </c>
       <c r="E201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>76650</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F201">
+        <f t="shared" si="13"/>
+        <v>1.3771688485945184</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="14"/>
+        <v>75.034006068775355</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="15"/>
+        <v>3.5382078773901148E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>44213</v>
       </c>
@@ -4556,11 +6974,23 @@
         <v>248332</v>
       </c>
       <c r="E202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>77859</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F202">
+        <f t="shared" si="13"/>
+        <v>1.3679452096215774</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="14"/>
+        <v>75.089427452640493</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="15"/>
+        <v>3.5769502653213137E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <v>44214</v>
       </c>
@@ -4574,11 +7004,23 @@
         <v>252631</v>
       </c>
       <c r="E203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>78392</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F203">
+        <f t="shared" si="13"/>
+        <v>1.3652955110919085</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="14"/>
+        <v>75.276292069546045</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="15"/>
+        <v>3.6228086020562026E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <v>44215</v>
       </c>
@@ -4592,11 +7034,23 @@
         <v>257563</v>
       </c>
       <c r="E204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>78740</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F204">
+        <f t="shared" si="13"/>
+        <v>1.3742378786412464</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="14"/>
+        <v>75.53410813838569</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="15"/>
+        <v>3.7050373437877266E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <v>44216</v>
       </c>
@@ -4610,11 +7064,23 @@
         <v>264831</v>
       </c>
       <c r="E205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>76899</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F205">
+        <f t="shared" si="13"/>
+        <v>1.3789003428492272</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="14"/>
+        <v>76.428538446442801</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="15"/>
+        <v>3.7777781537809987E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <v>44217</v>
       </c>
@@ -4628,11 +7094,23 @@
         <v>273031</v>
       </c>
       <c r="E206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>74226</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F206">
+        <f t="shared" si="13"/>
+        <v>1.3835838570523871</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="14"/>
+        <v>77.537209374973386</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="15"/>
+        <v>3.852100285730646E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <v>44218</v>
       </c>
@@ -4646,11 +7124,23 @@
         <v>279058</v>
       </c>
       <c r="E207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>73136</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F207">
+        <f t="shared" si="13"/>
+        <v>1.39427841892187</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="14"/>
+        <v>78.129427113955657</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="15"/>
+        <v>3.9374916713749205E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <v>44219</v>
       </c>
@@ -4664,11 +7154,23 @@
         <v>285366</v>
       </c>
       <c r="E208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>71499</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F208">
+        <f t="shared" si="13"/>
+        <v>1.3988970181914635</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="14"/>
+        <v>78.846068831369777</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="15"/>
+        <v>4.0031165325645031E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <v>44220</v>
       </c>
@@ -4682,11 +7184,23 @@
         <v>290386</v>
       </c>
       <c r="E209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>70394</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F209">
+        <f t="shared" si="13"/>
+        <v>1.3990199481277621</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="14"/>
+        <v>79.362337694281763</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="15"/>
+        <v>4.0473935473430162E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <v>44221</v>
       </c>
@@ -4700,11 +7214,23 @@
         <v>290386</v>
       </c>
       <c r="E210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>73105</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F210">
+        <f t="shared" si="13"/>
+        <v>1.4085232882359962</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="14"/>
+        <v>78.762842976641252</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="15"/>
+        <v>4.1059024597289084E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <v>44222</v>
       </c>
@@ -4718,11 +7244,23 @@
         <v>301384</v>
       </c>
       <c r="E211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>65864</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F211">
+        <f t="shared" si="13"/>
+        <v>1.421841656712612</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="14"/>
+        <v>80.89868338053121</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="15"/>
+        <v>4.1881312014604337E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <v>44223</v>
       </c>
@@ -4736,11 +7274,23 @@
         <v>308008</v>
       </c>
       <c r="E212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>63087</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F212">
+        <f t="shared" si="13"/>
+        <v>1.4308785014954235</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="14"/>
+        <v>81.812145069352582</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="15"/>
+        <v>4.2592906894973288E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <v>44224</v>
       </c>
@@ -4754,11 +7304,23 @@
         <v>314278</v>
       </c>
       <c r="E213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>60866</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F213">
+        <f t="shared" si="13"/>
+        <v>1.4449196624667668</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="14"/>
+        <v>82.564811214678286</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="15"/>
+        <v>4.3486353800325436E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <v>44225</v>
       </c>
@@ -4772,11 +7334,23 @@
         <v>320092</v>
       </c>
       <c r="E214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>58491</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F214">
+        <f t="shared" si="13"/>
+        <v>1.4568691759071268</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="14"/>
+        <v>83.318236243427563</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="15"/>
+        <v>4.4253294949167538E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <v>44226</v>
       </c>
@@ -4790,11 +7364,23 @@
         <v>325436</v>
       </c>
       <c r="E215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>56375</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F215">
+        <f t="shared" si="13"/>
+        <v>1.4678747558058214</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="14"/>
+        <v>83.983700603098328</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="15"/>
+        <v>4.4972796439318374E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <v>44227</v>
       </c>
@@ -4808,11 +7394,23 @@
         <v>325436</v>
       </c>
       <c r="E216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>58977</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F216">
+        <f t="shared" si="13"/>
+        <v>1.4745005971817124</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="14"/>
+        <v>83.409625646519686</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="15"/>
+        <v>4.5486726075140409E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <v>44228</v>
       </c>
@@ -4826,11 +7424,23 @@
         <v>333969</v>
       </c>
       <c r="E217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>52154</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F217">
+        <f t="shared" si="13"/>
+        <v>1.4881772443845738</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="14"/>
+        <v>85.20573737868537</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="15"/>
+        <v>4.6119254857690589E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <v>44229</v>
       </c>
@@ -4844,11 +7454,23 @@
         <v>339221</v>
       </c>
       <c r="E218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>49096</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F218">
+        <f t="shared" si="13"/>
+        <v>1.5096292125427058</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="14"/>
+        <v>86.037958855502211</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="15"/>
+        <v>4.7060141421733995E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <v>44230</v>
       </c>
@@ -4862,11 +7484,23 @@
         <v>343981</v>
       </c>
       <c r="E219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>46851</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F219">
+        <f t="shared" si="13"/>
+        <v>1.5288485764676241</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="14"/>
+        <v>86.666918619299565</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="15"/>
+        <v>4.7977308156431763E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <v>44231</v>
       </c>
@@ -4880,11 +7514,23 @@
         <v>349176</v>
       </c>
       <c r="E220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>44144</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F220">
+        <f t="shared" si="13"/>
+        <v>1.5449621018693742</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="14"/>
+        <v>87.405004355531517</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="15"/>
+        <v>4.8799595573747016E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <v>44232</v>
       </c>
@@ -4898,11 +7544,23 @@
         <v>354317</v>
       </c>
       <c r="E221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>41263</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F221">
+        <f t="shared" si="13"/>
+        <v>1.5622433795022124</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="14"/>
+        <v>88.169701735438892</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="15"/>
+        <v>4.9637696210626013E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <v>44233</v>
       </c>
@@ -4916,11 +7574,23 @@
         <v>358716</v>
       </c>
       <c r="E222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>39040</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F222">
+        <f t="shared" si="13"/>
+        <v>1.5767281653337555</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="14"/>
+        <v>88.762966188930235</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="15"/>
+        <v>5.0380917530122487E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <v>44234</v>
       </c>
@@ -4934,11 +7604,23 @@
         <v>362075</v>
       </c>
       <c r="E223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>37266</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F223">
+        <f t="shared" si="13"/>
+        <v>1.5831823838921542</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="14"/>
+        <v>89.232683942676189</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="15"/>
+        <v>5.0792061238780105E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <v>44235</v>
       </c>
@@ -4952,11 +7634,23 @@
         <v>365082</v>
       </c>
       <c r="E224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>35403</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F224">
+        <f t="shared" si="13"/>
+        <v>1.5988029248732161</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="14"/>
+        <v>89.702500294846089</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="15"/>
+        <v>5.1448309850675921E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <v>44236</v>
       </c>
@@ -4970,11 +7664,23 @@
         <v>368657</v>
       </c>
       <c r="E225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>33291</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F225">
+        <f t="shared" si="13"/>
+        <v>1.6159588789621833</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="14"/>
+        <v>90.235466895116872</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="15"/>
+        <v>5.219943777995428E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <v>44237</v>
       </c>
@@ -4988,11 +7694,23 @@
         <v>372379</v>
       </c>
       <c r="E226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>31332</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F226">
+        <f t="shared" si="13"/>
+        <v>1.6380221911440087</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="14"/>
+        <v>90.728107320543614</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="15"/>
+        <v>5.3156137563561429E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <v>44238</v>
       </c>
@@ -5006,11 +7724,23 @@
         <v>375298</v>
       </c>
       <c r="E227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>30027</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F227">
+        <f t="shared" si="13"/>
+        <v>1.6499848346982104</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="14"/>
+        <v>91.064118895966033</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="15"/>
+        <v>5.3764946516765989E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <v>44239</v>
       </c>
@@ -5024,11 +7754,23 @@
         <v>377868</v>
       </c>
       <c r="E228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>28710</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F228">
+        <f t="shared" si="13"/>
+        <v>1.6599708301789129</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="14"/>
+        <v>91.395870269276642</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="15"/>
+        <v>5.4263062933024263E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <v>44240</v>
       </c>
@@ -5042,11 +7784,23 @@
         <v>380413</v>
       </c>
       <c r="E229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>27462</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F229">
+        <f t="shared" si="13"/>
+        <v>1.6701904277452191</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="14"/>
+        <v>91.70931743502338</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="15"/>
+        <v>5.477699256884629E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <v>44241</v>
       </c>
@@ -5060,11 +7814,23 @@
         <v>382730</v>
       </c>
       <c r="E230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>26458</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F230">
+        <f t="shared" si="13"/>
+        <v>1.6738995660260385</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="14"/>
+        <v>91.968357867520197</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="15"/>
+        <v>5.5077443740557631E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <v>44242</v>
       </c>
@@ -5078,11 +7844,23 @@
         <v>384941</v>
       </c>
       <c r="E231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>25148</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F231">
+        <f t="shared" si="13"/>
+        <v>1.6872559196599597</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="14"/>
+        <v>92.283884764112614</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="15"/>
+        <v>5.56467196448528E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <v>44243</v>
       </c>
@@ -5096,11 +7874,23 @@
         <v>387584</v>
       </c>
       <c r="E232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>23712</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F232">
+        <f t="shared" si="13"/>
+        <v>1.7061192299879311</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="14"/>
+        <v>92.627050796419994</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="15"/>
+        <v>5.6445287232822416E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <v>44244</v>
       </c>
@@ -5114,11 +7904,23 @@
         <v>391052</v>
       </c>
       <c r="E233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>21626</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F233">
+        <f t="shared" si="13"/>
+        <v>1.7189970849924745</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="14"/>
+        <v>93.130679977899291</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="15"/>
+        <v>5.7069909405590719E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <v>44245</v>
       </c>
@@ -5132,11 +7934,23 @@
         <v>393338</v>
       </c>
       <c r="E234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>20789</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F234">
+        <f t="shared" si="13"/>
+        <v>1.730810756939023</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="14"/>
+        <v>93.336117564146065</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="15"/>
+        <v>5.7670811749013402E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <v>44246</v>
       </c>
@@ -5150,11 +7964,23 @@
         <v>395336</v>
       </c>
       <c r="E235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>20022</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F235">
+        <f t="shared" si="13"/>
+        <v>1.7411134609834451</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="14"/>
+        <v>93.522395545020558</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="15"/>
+        <v>5.8192647994617305E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <v>44247</v>
       </c>
@@ -5168,11 +7994,23 @@
         <v>397137</v>
       </c>
       <c r="E236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>19377</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F236">
+        <f t="shared" si="13"/>
+        <v>1.7544438993093558</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="14"/>
+        <v>93.674991508472658</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="15"/>
+        <v>5.8809363557603741E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <v>44248</v>
       </c>
@@ -5186,11 +8024,23 @@
         <v>398765</v>
       </c>
       <c r="E237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>18738</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F237">
+        <f t="shared" si="13"/>
+        <v>1.761226199327981</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="14"/>
+        <v>93.829708132935522</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="15"/>
+        <v>5.9180974217351977E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <v>44249</v>
       </c>
@@ -5204,11 +8054,23 @@
         <v>400094</v>
       </c>
       <c r="E238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>18090</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F238">
+        <f t="shared" si="13"/>
+        <v>1.771331258441482</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="14"/>
+        <v>93.9794468260027</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="15"/>
+        <v>5.9623744365137109E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>44250</v>
       </c>
@@ -5222,11 +8084,23 @@
         <v>401653</v>
       </c>
       <c r="E239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>17580</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F239">
+        <f t="shared" si="13"/>
+        <v>1.7794052873757109</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="14"/>
+        <v>94.101839616894864</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="15"/>
+        <v>6.0050701293358488E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>44251</v>
       </c>
@@ -5240,11 +8114,23 @@
         <v>403225</v>
       </c>
       <c r="E240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>16843</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F240">
+        <f t="shared" si="13"/>
+        <v>1.7917761589032386</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="14"/>
+        <v>94.270477775803542</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="15"/>
+        <v>6.059625736830802E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>44252</v>
       </c>
@@ -5258,11 +8144,23 @@
         <v>405101</v>
       </c>
       <c r="E241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>15977</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F241">
+        <f t="shared" si="13"/>
+        <v>1.8045035632998769</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="14"/>
+        <v>94.469655982985714</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="15"/>
+        <v>6.1181346492166942E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>44253</v>
       </c>
@@ -5276,11 +8174,23 @@
         <v>406428</v>
       </c>
       <c r="E242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>15627</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F242">
+        <f t="shared" si="13"/>
+        <v>1.8186766789261015</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="14"/>
+        <v>94.546063604832113</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="15"/>
+        <v>6.1813875274717139E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <v>44254</v>
       </c>
@@ -5294,11 +8204,23 @@
         <v>407864</v>
       </c>
       <c r="E243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>15370</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F243">
+        <f t="shared" si="13"/>
+        <v>1.8230405040211741</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="14"/>
+        <v>94.611603528704947</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="15"/>
+        <v>6.21380462757741E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <v>44255</v>
       </c>
@@ -5312,11 +8234,23 @@
         <v>409163</v>
       </c>
       <c r="E244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>15038</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F244">
+        <f t="shared" si="13"/>
+        <v>1.825777037191326</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="14"/>
+        <v>94.693929505427107</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="15"/>
+        <v>6.2375244569230423E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <v>44256</v>
       </c>
@@ -5330,11 +8264,23 @@
         <v>410448</v>
       </c>
       <c r="E245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>14390</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F245">
+        <f t="shared" si="13"/>
+        <v>1.8346588782239392</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="14"/>
+        <v>94.840310736682554</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="15"/>
+        <v>6.2778481668106173E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <v>44257</v>
       </c>
@@ -5348,11 +8294,23 @@
         <v>411959</v>
       </c>
       <c r="E246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>13736</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F246">
+        <f t="shared" si="13"/>
+        <v>1.8457459073092</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="14"/>
+        <v>94.987087848743371</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="15"/>
+        <v>6.32924113039282E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <v>44258</v>
       </c>
@@ -5366,11 +8324,23 @@
         <v>413178</v>
       </c>
       <c r="E247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>13698</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F247">
+        <f t="shared" si="13"/>
+        <v>1.8549514420247204</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="14"/>
+        <v>94.995677604473215</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="15"/>
+        <v>6.3790527720186474E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <v>44259</v>
       </c>
@@ -5384,11 +8354,23 @@
         <v>413178</v>
       </c>
       <c r="E248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>14780</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F248">
+        <f t="shared" si="13"/>
+        <v>1.8654277871921816</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="14"/>
+        <v>94.745386878486926</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="15"/>
+        <v>6.4320270575572254E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <v>44260</v>
       </c>
@@ -5402,11 +8384,23 @@
         <v>415868</v>
       </c>
       <c r="E249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>13164</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F249">
+        <f t="shared" si="13"/>
+        <v>1.8731902786227592</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="14"/>
+        <v>95.115982269876625</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="15"/>
+        <v>6.4755134113575509E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <v>44261</v>
       </c>
@@ -5420,11 +8414,23 @@
         <v>417136</v>
       </c>
       <c r="E250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12302</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F250">
+        <f t="shared" si="13"/>
+        <v>1.8727978173542275</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="14"/>
+        <v>95.316177445079674</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="15"/>
+        <v>6.4802573772266767E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <v>44262</v>
       </c>
@@ -5438,11 +8444,23 @@
         <v>418105</v>
       </c>
       <c r="E251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12996</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F251">
+        <f t="shared" si="13"/>
+        <v>1.8788863700507106</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="14"/>
+        <v>95.163147880079023</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="15"/>
+        <v>6.5269063749397536E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <v>44263</v>
       </c>
@@ -5456,11 +8474,23 @@
         <v>418105</v>
       </c>
       <c r="E252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>13571</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F252">
+        <f t="shared" si="13"/>
+        <v>1.8866895314982375</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="14"/>
+        <v>95.028831052532297</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="15"/>
+        <v>6.5632767799363896E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <v>44264</v>
       </c>
@@ -5474,11 +8504,23 @@
         <v>420104</v>
       </c>
       <c r="E253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12689</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F253">
+        <f t="shared" si="13"/>
+        <v>1.8948117655592629</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="14"/>
+        <v>95.228855360510664</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="15"/>
+        <v>6.6091351166712772E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <v>44265</v>
       </c>
@@ -5492,11 +8534,23 @@
         <v>421265</v>
       </c>
       <c r="E254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12734</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F254">
+        <f t="shared" si="13"/>
+        <v>1.9013993775019156</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="14"/>
+        <v>95.220281593360028</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="15"/>
+        <v>6.6510401485152275E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <v>44266</v>
       </c>
@@ -5510,11 +8564,23 @@
         <v>422386</v>
       </c>
       <c r="E255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12871</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F255">
+        <f t="shared" si="13"/>
+        <v>1.9059574410543729</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="14"/>
+        <v>95.193300188860391</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="15"/>
+        <v>6.6866198925336767E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <v>44267</v>
       </c>
@@ -5528,11 +8594,23 @@
         <v>423463</v>
       </c>
       <c r="E256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12999</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F256">
+        <f t="shared" si="13"/>
+        <v>1.9135820503082182</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="14"/>
+        <v>95.165143366960535</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="15"/>
+        <v>6.7324782292685651E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <v>44268</v>
       </c>
@@ -5546,11 +8624,23 @@
         <v>424529</v>
       </c>
       <c r="E257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>13217</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F257">
+        <f t="shared" si="13"/>
+        <v>1.9192851637419561</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="14"/>
+        <v>95.119333560379289</v>
+      </c>
+      <c r="H257">
+        <f t="shared" si="15"/>
+        <v>6.7728019391561393E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <v>44269</v>
       </c>
@@ -5564,11 +8654,23 @@
         <v>425507</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="4">B258-C258-D258</f>
+        <f t="shared" ref="E258:E321" si="16">B258-C258-D258</f>
         <v>13193</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F258">
+        <f t="shared" si="13"/>
+        <v>1.9197964617795733</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="14"/>
+        <v>95.130643188825076</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="15"/>
+        <v>6.7894058196980812E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <v>44270</v>
       </c>
@@ -5582,11 +8684,23 @@
         <v>425507</v>
       </c>
       <c r="E259">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>13868</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F259">
+        <f t="shared" ref="F259:F322" si="17">C259/B259*100</f>
+        <v>1.9252232142857144</v>
+      </c>
+      <c r="G259">
+        <f t="shared" ref="G259:G322" si="18">D259/B259*100</f>
+        <v>94.979241071428561</v>
+      </c>
+      <c r="H259">
+        <f t="shared" ref="H259:H322" si="19">C259/126476458*100</f>
+        <v>6.8194509368692154E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <v>44271</v>
       </c>
@@ -5600,11 +8714,23 @@
         <v>427426</v>
       </c>
       <c r="E260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>13034</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F260">
+        <f t="shared" si="17"/>
+        <v>1.9330189561430462</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="18"/>
+        <v>95.165003495553748</v>
+      </c>
+      <c r="H260">
+        <f t="shared" si="19"/>
+        <v>6.864518612625917E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <v>44272</v>
       </c>
@@ -5618,11 +8744,23 @@
         <v>428627</v>
       </c>
       <c r="E261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>13342</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F261">
+        <f t="shared" si="17"/>
+        <v>1.9343801795924889</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="18"/>
+        <v>95.105250428789816</v>
+      </c>
+      <c r="H261">
+        <f t="shared" si="19"/>
+        <v>6.892982407840675E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <v>44273</v>
       </c>
@@ -5636,11 +8774,23 @@
         <v>429742</v>
       </c>
       <c r="E262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>13655</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F262">
+        <f t="shared" si="17"/>
+        <v>1.9352113361362566</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="18"/>
+        <v>95.044753144441955</v>
+      </c>
+      <c r="H262">
+        <f t="shared" si="19"/>
+        <v>6.9182835591426826E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <v>44274</v>
       </c>
@@ -5654,11 +8804,23 @@
         <v>430771</v>
       </c>
       <c r="E263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>14062</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F263">
+        <f t="shared" si="17"/>
+        <v>1.9362191809812703</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="18"/>
+        <v>94.96380198229339</v>
+      </c>
+      <c r="H263">
+        <f t="shared" si="19"/>
+        <v>6.9443753714228769E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <v>44275</v>
       </c>
@@ -5672,11 +8834,23 @@
         <v>431972</v>
       </c>
       <c r="E264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>14438</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F264">
+        <f t="shared" si="17"/>
+        <v>1.9336045622698874</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="18"/>
+        <v>94.894686431816382</v>
+      </c>
+      <c r="H264">
+        <f t="shared" si="19"/>
+        <v>6.9593979300084444E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <v>44276</v>
       </c>
@@ -5690,11 +8864,23 @@
         <v>431972</v>
       </c>
       <c r="E265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>15525</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F265">
+        <f t="shared" si="17"/>
+        <v>1.9330817543905785</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="18"/>
+        <v>94.664685592065183</v>
+      </c>
+      <c r="H265">
+        <f t="shared" si="19"/>
+        <v>6.974420488594011E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <v>44277</v>
       </c>
@@ -5708,11 +8894,23 @@
         <v>434118</v>
       </c>
       <c r="E266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>14129</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F266">
+        <f t="shared" si="17"/>
+        <v>1.9376334488431517</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="18"/>
+        <v>94.971385067730765</v>
+      </c>
+      <c r="H266">
+        <f t="shared" si="19"/>
+        <v>7.0028842838087708E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <v>44278</v>
       </c>
@@ -5726,11 +8924,23 @@
         <v>435205</v>
       </c>
       <c r="E267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>14508</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F267">
+        <f t="shared" si="17"/>
+        <v>1.9423445502931613</v>
+      </c>
+      <c r="G267">
+        <f t="shared" si="18"/>
+        <v>94.894259094110396</v>
+      </c>
+      <c r="H267">
+        <f t="shared" si="19"/>
+        <v>7.0432079936963441E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <v>44279</v>
       </c>
@@ -5744,11 +8954,23 @@
         <v>436307</v>
       </c>
       <c r="E268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>15359</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F268">
+        <f t="shared" si="17"/>
+        <v>1.9385794461511741</v>
+      </c>
+      <c r="G268">
+        <f t="shared" si="18"/>
+        <v>94.726820742734944</v>
+      </c>
+      <c r="H268">
+        <f t="shared" si="19"/>
+        <v>7.0598118742382877E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <v>44280</v>
       </c>
@@ -5762,11 +8984,23 @@
         <v>437546</v>
       </c>
       <c r="E269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>16004</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F269">
+        <f t="shared" si="17"/>
+        <v>1.9364073114727161</v>
+      </c>
+      <c r="G269">
+        <f t="shared" si="18"/>
+        <v>94.603313254314543</v>
+      </c>
+      <c r="H269">
+        <f t="shared" si="19"/>
+        <v>7.0811597206493562E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <v>44281</v>
       </c>
@@ -5780,11 +9014,23 @@
         <v>438723</v>
       </c>
       <c r="E270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>16771</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F270">
+        <f t="shared" si="17"/>
+        <v>1.9352699668233282</v>
+      </c>
+      <c r="G270">
+        <f t="shared" si="18"/>
+        <v>94.454048910293807</v>
+      </c>
+      <c r="H270">
+        <f t="shared" si="19"/>
+        <v>7.1072515329295514E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <v>44282</v>
       </c>
@@ -5798,11 +9044,23 @@
         <v>438723</v>
       </c>
       <c r="E271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>18819</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F271">
+        <f t="shared" si="17"/>
+        <v>1.9335009419949718</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="18"/>
+        <v>94.032960179011198</v>
+      </c>
+      <c r="H271">
+        <f t="shared" si="19"/>
+        <v>7.132552684231558E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <v>44283</v>
       </c>
@@ -5816,11 +9074,23 @@
         <v>438723</v>
       </c>
       <c r="E272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>20573</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F272">
+        <f t="shared" si="17"/>
+        <v>1.9323320792747241</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="18"/>
+        <v>93.674975338745298</v>
+      </c>
+      <c r="H272">
+        <f t="shared" si="19"/>
+        <v>7.1554818525990027E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>44284</v>
       </c>
@@ -5834,11 +9104,23 @@
         <v>442213</v>
       </c>
       <c r="E273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>18344</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F273">
+        <f t="shared" si="17"/>
+        <v>1.9331993288419118</v>
+      </c>
+      <c r="G273">
+        <f t="shared" si="18"/>
+        <v>94.160796872471437</v>
+      </c>
+      <c r="H273">
+        <f t="shared" si="19"/>
+        <v>7.1784110209664473E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <v>44285</v>
       </c>
@@ -5852,11 +9134,23 @@
         <v>443484</v>
       </c>
       <c r="E274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>19181</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F274">
+        <f t="shared" si="17"/>
+        <v>1.9314209891537739</v>
+      </c>
+      <c r="G274">
+        <f t="shared" si="18"/>
+        <v>94.002886957185282</v>
+      </c>
+      <c r="H274">
+        <f t="shared" si="19"/>
+        <v>7.2045028332466425E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <v>44286</v>
       </c>
@@ -5870,11 +9164,23 @@
         <v>444868</v>
       </c>
       <c r="E275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>20618</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F275">
+        <f t="shared" si="17"/>
+        <v>1.9288262075968996</v>
+      </c>
+      <c r="G275">
+        <f t="shared" si="18"/>
+        <v>93.727259128478153</v>
+      </c>
+      <c r="H275">
+        <f t="shared" si="19"/>
+        <v>7.2385012553087156E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <v>44287</v>
       </c>
@@ -5888,11 +9194,23 @@
         <v>446260</v>
       </c>
       <c r="E276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>21806</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F276">
+        <f t="shared" si="17"/>
+        <v>1.9220977330017035</v>
+      </c>
+      <c r="G276">
+        <f t="shared" si="18"/>
+        <v>93.508703186453744</v>
+      </c>
+      <c r="H276">
+        <f t="shared" si="19"/>
+        <v>7.2527331529160938E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <v>44288</v>
       </c>
@@ -5906,11 +9224,23 @@
         <v>447559</v>
       </c>
       <c r="E277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>23203</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F277">
+        <f t="shared" si="17"/>
+        <v>1.9149791750442231</v>
+      </c>
+      <c r="G277">
+        <f t="shared" si="18"/>
+        <v>93.250589120184685</v>
+      </c>
+      <c r="H277">
+        <f t="shared" si="19"/>
+        <v>7.2669650505234737E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <v>44289</v>
       </c>
@@ -5924,11 +9254,23 @@
         <v>448935</v>
       </c>
       <c r="E278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>24571</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F278">
+        <f t="shared" si="17"/>
+        <v>1.9055155954788028</v>
+      </c>
+      <c r="G278">
+        <f t="shared" si="18"/>
+        <v>93.004201332493622</v>
+      </c>
+      <c r="H278">
+        <f t="shared" si="19"/>
+        <v>7.2724996773707879E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <v>44290</v>
       </c>
@@ -5942,11 +9284,23 @@
         <v>450468</v>
       </c>
       <c r="E279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>25548</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F279">
+        <f t="shared" si="17"/>
+        <v>1.8980846038753076</v>
+      </c>
+      <c r="G279">
+        <f t="shared" si="18"/>
+        <v>92.836739993322709</v>
+      </c>
+      <c r="H279">
+        <f t="shared" si="19"/>
+        <v>7.2819876091090403E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <v>44291</v>
       </c>
@@ -5960,11 +9314,23 @@
         <v>451999</v>
       </c>
       <c r="E280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>25564</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F280">
+        <f t="shared" si="17"/>
+        <v>1.8958816085720389</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="18"/>
+        <v>92.852594126444146</v>
+      </c>
+      <c r="H280">
+        <f t="shared" si="19"/>
+        <v>7.2970101676946078E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <v>44292</v>
       </c>
@@ -5978,11 +9344,23 @@
         <v>453899</v>
       </c>
       <c r="E281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>26257</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F281">
+        <f t="shared" si="17"/>
+        <v>1.8902467680274291</v>
+      </c>
+      <c r="G281">
+        <f t="shared" si="18"/>
+        <v>92.744688980746076</v>
+      </c>
+      <c r="H281">
+        <f t="shared" si="19"/>
+        <v>7.3144047092147373E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <v>44293</v>
       </c>
@@ -5996,11 +9374,23 @@
         <v>455226</v>
       </c>
       <c r="E282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>28348</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F282">
+        <f t="shared" si="17"/>
+        <v>1.8841050196810456</v>
+      </c>
+      <c r="G282">
+        <f t="shared" si="18"/>
+        <v>92.364160207766915</v>
+      </c>
+      <c r="H282">
+        <f t="shared" si="19"/>
+        <v>7.3420778434513086E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <v>44294</v>
       </c>
@@ -6014,11 +9404,23 @@
         <v>456894</v>
       </c>
       <c r="E283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>30146</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F283">
+        <f t="shared" si="17"/>
+        <v>1.8758902470227723</v>
+      </c>
+      <c r="G283">
+        <f t="shared" si="18"/>
+        <v>92.050585170574848</v>
+      </c>
+      <c r="H283">
+        <f t="shared" si="19"/>
+        <v>7.3618443679060019E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <v>44295</v>
       </c>
@@ -6032,11 +9434,23 @@
         <v>458684</v>
       </c>
       <c r="E284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>31822</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F284">
+        <f t="shared" si="17"/>
+        <v>1.8656305831371005</v>
+      </c>
+      <c r="G284">
+        <f t="shared" si="18"/>
+        <v>91.767817522322545</v>
+      </c>
+      <c r="H284">
+        <f t="shared" si="19"/>
+        <v>7.3729136216006304E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <v>44296</v>
       </c>
@@ -6050,11 +9464,23 @@
         <v>458684</v>
       </c>
       <c r="E285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>35501</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F285">
+        <f t="shared" si="17"/>
+        <v>1.8572617305183134</v>
+      </c>
+      <c r="G285">
+        <f t="shared" si="18"/>
+        <v>91.09241227556268</v>
+      </c>
+      <c r="H285">
+        <f t="shared" si="19"/>
+        <v>7.3942614680116989E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <v>44297</v>
       </c>
@@ -6068,11 +9494,23 @@
         <v>463569</v>
       </c>
       <c r="E286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>33299</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F286">
+        <f t="shared" si="17"/>
+        <v>1.8507141911792302</v>
+      </c>
+      <c r="G286">
+        <f t="shared" si="18"/>
+        <v>91.571536651805374</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="19"/>
+        <v>7.4077027046408912E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <v>44298</v>
       </c>
@@ -6086,11 +9524,23 @@
         <v>465760</v>
       </c>
       <c r="E287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>33197</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F287">
+        <f t="shared" si="17"/>
+        <v>1.8477426969607551</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="18"/>
+        <v>91.621914035605386</v>
+      </c>
+      <c r="H287">
+        <f t="shared" si="19"/>
+        <v>7.4266785681173968E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <v>44299</v>
       </c>
@@ -6104,11 +9554,23 @@
         <v>468614</v>
       </c>
       <c r="E288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>33763</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F288">
+        <f t="shared" si="17"/>
+        <v>1.8409570944843583</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="18"/>
+        <v>91.562117159275417</v>
+      </c>
+      <c r="H288">
+        <f t="shared" si="19"/>
+        <v>7.4496077364848397E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <v>44300</v>
       </c>
@@ -6122,11 +9584,23 @@
         <v>470851</v>
       </c>
       <c r="E289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>36959</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F289">
+        <f t="shared" si="17"/>
+        <v>1.8309197515470315</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="18"/>
+        <v>91.024220878014077</v>
+      </c>
+      <c r="H289">
+        <f t="shared" si="19"/>
+        <v>7.4883501244160386E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <v>44301</v>
       </c>
@@ -6140,11 +9614,23 @@
         <v>473414</v>
       </c>
       <c r="E290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>38876</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F290">
+        <f t="shared" si="17"/>
+        <v>1.8217847587946245</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="18"/>
+        <v>90.727794003786926</v>
+      </c>
+      <c r="H290">
+        <f t="shared" si="19"/>
+        <v>7.5160232586526108E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <v>44302</v>
       </c>
@@ -6158,11 +9644,23 @@
         <v>475598</v>
       </c>
       <c r="E291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>41157</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F291">
+        <f t="shared" si="17"/>
+        <v>1.8149103090021605</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="18"/>
+        <v>90.365129097655924</v>
+      </c>
+      <c r="H291">
+        <f t="shared" si="19"/>
+        <v>7.5523936636492459E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <v>44303</v>
       </c>
@@ -6176,11 +9674,23 @@
         <v>478222</v>
       </c>
       <c r="E292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>43294</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F292">
+        <f t="shared" si="17"/>
+        <v>1.8062205686591644</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="18"/>
+        <v>90.042157071335637</v>
+      </c>
+      <c r="H292">
+        <f t="shared" si="19"/>
+        <v>7.5848107637549438E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <v>44304</v>
       </c>
@@ -6194,11 +9704,23 @@
         <v>480637</v>
       </c>
       <c r="E293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>44973</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F293">
+        <f t="shared" si="17"/>
+        <v>1.7955233361981988</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="18"/>
+        <v>89.801763760696545</v>
+      </c>
+      <c r="H293">
+        <f t="shared" si="19"/>
+        <v>7.5982520003841343E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <v>44305</v>
       </c>
@@ -6212,11 +9734,23 @@
         <v>482896</v>
       </c>
       <c r="E294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>44969</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F294">
+        <f t="shared" si="17"/>
+        <v>1.7914618581788819</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="18"/>
+        <v>89.842119167841872</v>
+      </c>
+      <c r="H294">
+        <f t="shared" si="19"/>
+        <v>7.6132745589697019E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <v>44306</v>
       </c>
@@ -6230,11 +9764,23 @@
         <v>485920</v>
       </c>
       <c r="E295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>46865</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F295">
+        <f t="shared" si="17"/>
+        <v>1.7848090298580377</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="18"/>
+        <v>89.575955772424862</v>
+      </c>
+      <c r="H295">
+        <f t="shared" si="19"/>
+        <v>7.6551795908136521E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <v>44307</v>
       </c>
@@ -6248,11 +9794,23 @@
         <v>488788</v>
       </c>
       <c r="E296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>49311</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F296">
+        <f t="shared" si="17"/>
+        <v>1.77735672719573</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="18"/>
+        <v>89.22159186325834</v>
+      </c>
+      <c r="H296">
+        <f t="shared" si="19"/>
+        <v>7.6986659446139768E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <v>44308</v>
       </c>
@@ -6266,11 +9824,23 @@
         <v>491505</v>
       </c>
       <c r="E297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>52079</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F297">
+        <f t="shared" si="17"/>
+        <v>1.7670168894864484</v>
+      </c>
+      <c r="G297">
+        <f t="shared" si="18"/>
+        <v>88.821603218146521</v>
+      </c>
+      <c r="H297">
+        <f t="shared" si="19"/>
+        <v>7.7310830447196747E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <v>44309</v>
       </c>
@@ -6284,11 +9854,23 @@
         <v>494726</v>
       </c>
       <c r="E298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>53816</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F298">
+        <f t="shared" si="17"/>
+        <v>1.7611788472283909</v>
+      </c>
+      <c r="G298">
+        <f t="shared" si="18"/>
+        <v>88.600871097611645</v>
+      </c>
+      <c r="H298">
+        <f t="shared" si="19"/>
+        <v>7.775360059498187E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <v>44310</v>
       </c>
@@ -6302,11 +9884,23 @@
         <v>498086</v>
       </c>
       <c r="E299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>56022</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F299">
+        <f t="shared" si="17"/>
+        <v>1.7535523175614096</v>
+      </c>
+      <c r="G299">
+        <f t="shared" si="18"/>
+        <v>88.313433735580631</v>
+      </c>
+      <c r="H299">
+        <f t="shared" si="19"/>
+        <v>7.8196370742767002E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <v>44311</v>
       </c>
@@ -6320,11 +9914,23 @@
         <v>501453</v>
       </c>
       <c r="E300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>57229</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F300">
+        <f t="shared" si="17"/>
+        <v>1.7479129332191388</v>
+      </c>
+      <c r="G300">
+        <f t="shared" si="18"/>
+        <v>88.187562541657798</v>
+      </c>
+      <c r="H300">
+        <f t="shared" si="19"/>
+        <v>7.8583794622078991E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <v>44312</v>
       </c>
@@ -6338,11 +9944,23 @@
         <v>504582</v>
       </c>
       <c r="E301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>57354</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F301">
+        <f t="shared" si="17"/>
+        <v>1.7429498657117279</v>
+      </c>
+      <c r="G301">
+        <f t="shared" si="18"/>
+        <v>88.228443934646378</v>
+      </c>
+      <c r="H301">
+        <f t="shared" si="19"/>
+        <v>7.8813086305753437E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <v>44313</v>
       </c>
@@ -6356,11 +9974,23 @@
         <v>508232</v>
       </c>
       <c r="E302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>58607</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F302">
+        <f t="shared" si="17"/>
+        <v>1.7388666423977672</v>
+      </c>
+      <c r="G302">
+        <f t="shared" si="18"/>
+        <v>88.101652018652388</v>
+      </c>
+      <c r="H302">
+        <f t="shared" si="19"/>
+        <v>7.9311202722011712E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <v>44314</v>
       </c>
@@ -6374,11 +10004,23 @@
         <v>508262</v>
       </c>
       <c r="E303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>62352</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F303">
+        <f t="shared" si="17"/>
+        <v>1.7311156499605624</v>
+      </c>
+      <c r="G303">
+        <f t="shared" si="18"/>
+        <v>87.530869725453186</v>
+      </c>
+      <c r="H303">
+        <f t="shared" si="19"/>
+        <v>7.9477241527431131E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <v>44315</v>
       </c>
@@ -6392,11 +10034,23 @@
         <v>515404</v>
       </c>
       <c r="E304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>63016</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F304">
+        <f t="shared" si="17"/>
+        <v>1.7261884535662104</v>
+      </c>
+      <c r="G304">
+        <f t="shared" si="18"/>
+        <v>87.567365523803048</v>
+      </c>
+      <c r="H304">
+        <f t="shared" si="19"/>
+        <v>8.0331155383873889E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <v>44316</v>
       </c>
@@ -6410,11 +10064,23 @@
         <v>518891</v>
       </c>
       <c r="E305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>64174</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F305">
+        <f t="shared" si="17"/>
+        <v>1.7191334717764775</v>
+      </c>
+      <c r="G305">
+        <f t="shared" si="18"/>
+        <v>87.463759810135116</v>
+      </c>
+      <c r="H305">
+        <f t="shared" si="19"/>
+        <v>8.0639513165367098E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <v>44317</v>
       </c>
@@ -6428,11 +10094,23 @@
         <v>523071</v>
       </c>
       <c r="E306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>65901</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F306">
+        <f t="shared" si="17"/>
+        <v>1.7156359667786396</v>
+      </c>
+      <c r="G306">
+        <f t="shared" si="18"/>
+        <v>87.287172529799605</v>
+      </c>
+      <c r="H306">
+        <f t="shared" si="19"/>
+        <v>8.1287855167481056E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <v>44318</v>
       </c>
@@ -6446,11 +10124,23 @@
         <v>527077</v>
       </c>
       <c r="E307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>67731</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F307">
+        <f t="shared" si="17"/>
+        <v>1.7089977691481451</v>
+      </c>
+      <c r="G307">
+        <f t="shared" si="18"/>
+        <v>87.09857060233</v>
+      </c>
+      <c r="H307">
+        <f t="shared" si="19"/>
+        <v>8.1770158364175578E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <v>44319</v>
       </c>
@@ -6464,11 +10154,23 @@
         <v>530913</v>
       </c>
       <c r="E308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>68321</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F308">
+        <f t="shared" si="17"/>
+        <v>1.7044904654500717</v>
+      </c>
+      <c r="G308">
+        <f t="shared" si="18"/>
+        <v>87.088456018043885</v>
+      </c>
+      <c r="H308">
+        <f t="shared" si="19"/>
+        <v>8.2157582243487567E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <v>44320</v>
       </c>
@@ -6482,11 +10184,23 @@
         <v>534680</v>
       </c>
       <c r="E309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>68701</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F309">
+        <f t="shared" si="17"/>
+        <v>1.7009817178269924</v>
+      </c>
+      <c r="G309">
+        <f t="shared" si="18"/>
+        <v>87.106685651540673</v>
+      </c>
+      <c r="H309">
+        <f t="shared" si="19"/>
+        <v>8.2552912732581432E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <v>44321</v>
       </c>
@@ -6500,11 +10214,23 @@
         <v>538790</v>
       </c>
       <c r="E310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>68599</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F310">
+        <f t="shared" si="17"/>
+        <v>1.6994934373432162</v>
+      </c>
+      <c r="G310">
+        <f t="shared" si="18"/>
+        <v>87.198368641667614</v>
+      </c>
+      <c r="H310">
+        <f t="shared" si="19"/>
+        <v>8.302730931949406E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <v>44322</v>
       </c>
@@ -6518,11 +10244,23 @@
         <v>542413</v>
       </c>
       <c r="E311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>69294</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F311">
+        <f t="shared" si="17"/>
+        <v>1.6979685764929542</v>
+      </c>
+      <c r="G311">
+        <f t="shared" si="18"/>
+        <v>87.166404455922077</v>
+      </c>
+      <c r="H311">
+        <f t="shared" si="19"/>
+        <v>8.3541238955316104E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <v>44323</v>
       </c>
@@ -6536,11 +10274,23 @@
         <v>545886</v>
       </c>
       <c r="E312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>71721</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F312">
+        <f t="shared" si="17"/>
+        <v>1.7048664770602195</v>
+      </c>
+      <c r="G312">
+        <f t="shared" si="18"/>
+        <v>86.880390374952853</v>
+      </c>
+      <c r="H312">
+        <f t="shared" si="19"/>
+        <v>8.4695603983470178E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <v>44324</v>
       </c>
@@ -6554,11 +10304,23 @@
         <v>551137</v>
       </c>
       <c r="E313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>73635</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F313">
+        <f t="shared" si="17"/>
+        <v>1.6986380686252296</v>
+      </c>
+      <c r="G313">
+        <f t="shared" si="18"/>
+        <v>86.715662210809867</v>
+      </c>
+      <c r="H313">
+        <f t="shared" si="19"/>
+        <v>8.5359759205147871E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <v>44325</v>
       </c>
@@ -6572,11 +10334,23 @@
         <v>555245</v>
       </c>
       <c r="E314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>76041</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F314">
+        <f t="shared" si="17"/>
+        <v>1.6912041809806493</v>
+      </c>
+      <c r="G314">
+        <f t="shared" si="18"/>
+        <v>86.467096267826932</v>
+      </c>
+      <c r="H314">
+        <f t="shared" si="19"/>
+        <v>8.5865782231188039E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <v>44326</v>
       </c>
@@ -6590,11 +10364,23 @@
         <v>559397</v>
       </c>
       <c r="E315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>76675</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F315">
+        <f t="shared" si="17"/>
+        <v>1.6894821198665231</v>
+      </c>
+      <c r="G315">
+        <f t="shared" si="18"/>
+        <v>86.459722752444733</v>
+      </c>
+      <c r="H315">
+        <f t="shared" si="19"/>
+        <v>8.6427151525701341E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <v>44327</v>
       </c>
@@ -6608,11 +10394,23 @@
         <v>563972</v>
       </c>
       <c r="E316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>78346</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F316">
+        <f t="shared" si="17"/>
+        <v>1.6904844626953166</v>
+      </c>
+      <c r="G316">
+        <f t="shared" si="18"/>
+        <v>86.318325341349293</v>
+      </c>
+      <c r="H316">
+        <f t="shared" si="19"/>
+        <v>8.7328505040835357E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <v>44328</v>
       </c>
@@ -6626,11 +10424,23 @@
         <v>568402</v>
       </c>
       <c r="E317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>81334</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F317">
+        <f t="shared" si="17"/>
+        <v>1.6868315770997633</v>
+      </c>
+      <c r="G317">
+        <f t="shared" si="18"/>
+        <v>86.006318809352322</v>
+      </c>
+      <c r="H317">
+        <f t="shared" si="19"/>
+        <v>8.8142885848368716E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <v>44329</v>
       </c>
@@ -6644,11 +10454,23 @@
         <v>573757</v>
       </c>
       <c r="E318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>82245</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F318">
+        <f t="shared" si="17"/>
+        <v>1.685872332900213</v>
+      </c>
+      <c r="G318">
+        <f t="shared" si="18"/>
+        <v>85.988181359038805</v>
+      </c>
+      <c r="H318">
+        <f t="shared" si="19"/>
+        <v>8.8941453436338323E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <v>44330</v>
       </c>
@@ -6662,11 +10484,23 @@
         <v>579290</v>
       </c>
       <c r="E319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>82919</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F319">
+        <f t="shared" si="17"/>
+        <v>1.6821594592146853</v>
+      </c>
+      <c r="G319">
+        <f t="shared" si="18"/>
+        <v>86.006897893069294</v>
+      </c>
+      <c r="H319">
+        <f t="shared" si="19"/>
+        <v>8.9581888828670388E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <v>44331</v>
       </c>
@@ -6680,11 +10514,23 @@
         <v>584614</v>
       </c>
       <c r="E320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>83832</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F320">
+        <f t="shared" si="17"/>
+        <v>1.6803212378837129</v>
+      </c>
+      <c r="G320">
+        <f t="shared" si="18"/>
+        <v>85.989086148822565</v>
+      </c>
+      <c r="H320">
+        <f t="shared" si="19"/>
+        <v>9.0325110148166861E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <v>44332</v>
       </c>
@@ -6698,11 +10544,23 @@
         <v>589888</v>
       </c>
       <c r="E321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>83776</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F321">
+        <f t="shared" si="17"/>
+        <v>1.674268574806425</v>
+      </c>
+      <c r="G321">
+        <f t="shared" si="18"/>
+        <v>86.09806826391879</v>
+      </c>
+      <c r="H321">
+        <f t="shared" si="19"/>
+        <v>9.0696720807915097E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <v>44333</v>
       </c>
@@ -6716,11 +10574,23 @@
         <v>595021</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E336" si="5">B322-C322-D322</f>
+        <f t="shared" ref="E322:E336" si="20">B322-C322-D322</f>
         <v>82265</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F322">
+        <f t="shared" si="17"/>
+        <v>1.6820226660066515</v>
+      </c>
+      <c r="G322">
+        <f t="shared" si="18"/>
+        <v>86.376008349870006</v>
+      </c>
+      <c r="H322">
+        <f t="shared" si="19"/>
+        <v>9.1613887542612866E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <v>44334</v>
       </c>
@@ -6734,11 +10604,23 @@
         <v>602200</v>
       </c>
       <c r="E323">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>80074</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F323">
+        <f t="shared" ref="F323:F336" si="21">C323/B323*100</f>
+        <v>1.7005317853782793</v>
+      </c>
+      <c r="G323">
+        <f t="shared" ref="G323:G336" si="22">D323/B323*100</f>
+        <v>86.762707883995589</v>
+      </c>
+      <c r="H323">
+        <f t="shared" ref="H323:H336" si="23">C323/126476458*100</f>
+        <v>9.3321715255498382E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <v>44335</v>
       </c>
@@ -6752,11 +10634,23 @@
         <v>608930</v>
       </c>
       <c r="E324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>79101</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F324">
+        <f t="shared" si="21"/>
+        <v>1.700167587947955</v>
+      </c>
+      <c r="G324">
+        <f t="shared" si="22"/>
+        <v>86.998575573878</v>
+      </c>
+      <c r="H324">
+        <f t="shared" si="23"/>
+        <v>9.4088656404340484E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <v>44336</v>
       </c>
@@ -6770,11 +10664,23 @@
         <v>615168</v>
       </c>
       <c r="E325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>78467</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F325">
+        <f t="shared" si="21"/>
+        <v>1.7014317478717931</v>
+      </c>
+      <c r="G325">
+        <f t="shared" si="22"/>
+        <v>87.178607818990102</v>
+      </c>
+      <c r="H325">
+        <f t="shared" si="23"/>
+        <v>9.492675704121949E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <v>44337</v>
       </c>
@@ -6788,11 +10694,23 @@
         <v>621452</v>
       </c>
       <c r="E326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>77324</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F326">
+        <f t="shared" si="21"/>
+        <v>1.7047524599272748</v>
+      </c>
+      <c r="G326">
+        <f t="shared" si="22"/>
+        <v>87.418254453892629</v>
+      </c>
+      <c r="H326">
+        <f t="shared" si="23"/>
+        <v>9.582020394657163E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <v>44338</v>
       </c>
@@ -6806,11 +10724,23 @@
         <v>628366</v>
       </c>
       <c r="E327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>75311</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F327">
+        <f t="shared" si="21"/>
+        <v>1.7046152986534053</v>
+      </c>
+      <c r="G327">
+        <f t="shared" si="22"/>
+        <v>87.775325473543049</v>
+      </c>
+      <c r="H327">
+        <f t="shared" si="23"/>
+        <v>9.6484359168249323E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <v>44339</v>
       </c>
@@ -6824,11 +10754,23 @@
         <v>633947</v>
       </c>
       <c r="E328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>73713</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F328">
+        <f t="shared" si="21"/>
+        <v>1.7036496857311525</v>
+      </c>
+      <c r="G328">
+        <f t="shared" si="22"/>
+        <v>88.057367086849325</v>
+      </c>
+      <c r="H328">
+        <f t="shared" si="23"/>
+        <v>9.6974568974725721E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <v>44340</v>
       </c>
@@ -6842,11 +10784,23 @@
         <v>639731</v>
       </c>
       <c r="E329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>70586</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F329">
+        <f t="shared" si="21"/>
+        <v>1.7090835625764529</v>
+      </c>
+      <c r="G329">
+        <f t="shared" si="22"/>
+        <v>88.523499034134616</v>
+      </c>
+      <c r="H329">
+        <f t="shared" si="23"/>
+        <v>9.7654537415967167E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <v>44341</v>
       </c>
@@ -6860,11 +10814,23 @@
         <v>645001</v>
       </c>
       <c r="E330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>69128</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F330">
+        <f t="shared" si="21"/>
+        <v>1.7144563754325022</v>
+      </c>
+      <c r="G330">
+        <f t="shared" si="22"/>
+        <v>88.771459951058787</v>
+      </c>
+      <c r="H330">
+        <f t="shared" si="23"/>
+        <v>9.8492638052846172E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <v>44342</v>
       </c>
@@ -6878,11 +10844,23 @@
         <v>649955</v>
       </c>
       <c r="E331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>68543</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F331">
+        <f t="shared" si="21"/>
+        <v>1.7198056002768543</v>
+      </c>
+      <c r="G331">
+        <f t="shared" si="22"/>
+        <v>88.904497647971255</v>
+      </c>
+      <c r="H331">
+        <f t="shared" si="23"/>
+        <v>9.9409804787543941E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <v>44343</v>
       </c>
@@ -6896,11 +10874,23 @@
         <v>655066</v>
       </c>
       <c r="E332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>67477</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F332">
+        <f t="shared" si="21"/>
+        <v>1.7261171273363309</v>
+      </c>
+      <c r="G332">
+        <f t="shared" si="22"/>
+        <v>89.096260510259313</v>
+      </c>
+      <c r="H332">
+        <f t="shared" si="23"/>
+        <v>1.0034278474180546E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <v>44344</v>
       </c>
@@ -6914,11 +10904,23 @@
         <v>659576</v>
       </c>
       <c r="E333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>66573</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F333">
+        <f t="shared" si="21"/>
+        <v>1.7303281073436771</v>
+      </c>
+      <c r="G333">
+        <f t="shared" si="22"/>
+        <v>89.260354429009311</v>
+      </c>
+      <c r="H333">
+        <f t="shared" si="23"/>
+        <v>1.0109391267108381E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <v>44345</v>
       </c>
@@ -6932,11 +10934,23 @@
         <v>666786</v>
       </c>
       <c r="E334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>62876</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F334">
+        <f t="shared" si="21"/>
+        <v>1.7341850057707406</v>
+      </c>
+      <c r="G334">
+        <f t="shared" si="22"/>
+        <v>89.798111614339447</v>
+      </c>
+      <c r="H334">
+        <f t="shared" si="23"/>
+        <v>1.0181341416123466E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <v>44346</v>
       </c>
@@ -6950,11 +10964,23 @@
         <v>671616</v>
       </c>
       <c r="E335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>60850</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F335">
+        <f t="shared" si="21"/>
+        <v>1.7341211067465172</v>
+      </c>
+      <c r="G335">
+        <f t="shared" si="22"/>
+        <v>90.102389078498291</v>
+      </c>
+      <c r="H335">
+        <f t="shared" si="23"/>
+        <v>1.0220083804054664E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <v>44347</v>
       </c>
@@ -6968,8 +10994,20 @@
         <v>675721</v>
       </c>
       <c r="E336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>58461</v>
+      </c>
+      <c r="F336">
+        <f t="shared" si="21"/>
+        <v>1.7406596465681996</v>
+      </c>
+      <c r="G336">
+        <f t="shared" si="22"/>
+        <v>90.435205062179804</v>
+      </c>
+      <c r="H336">
+        <f t="shared" si="23"/>
+        <v>1.0283336682309683E-2</v>
       </c>
     </row>
   </sheetData>
